--- a/sharedata/exceldata/excel/all/C-参数表.xlsx
+++ b/sharedata/exceldata/excel/all/C-参数表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\黑帮_国内\exceldata\excel\all\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\黑帮_国内\exceldata\sharedata\exceldata\excel\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="12444"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="12444" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="物品id" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="637">
   <si>
     <t>填写备注</t>
   </si>
@@ -3699,7 +3699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4706,11 +4706,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IV156"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8011,7 +8011,7 @@
         <v>248</v>
       </c>
       <c r="D52" s="40">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/sharedata/exceldata/excel/all/C-参数表.xlsx
+++ b/sharedata/exceldata/excel/all/C-参数表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="637">
   <si>
     <t>填写备注</t>
   </si>
@@ -2333,7 +2333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2486,6 +2486,29 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2961,7 +2984,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3318,6 +3341,33 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="25" borderId="1" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="75">
@@ -3699,8 +3749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A28" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3724,91 +3774,91 @@
       <c r="D2" s="68"/>
       <c r="F2" s="68"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="130" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="130" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="128"/>
+      <c r="B5" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="130" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="133"/>
+      <c r="F6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="133"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -4573,7 +4623,7 @@
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4582,7 +4632,7 @@
   <dimension ref="A3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4704,13 +4754,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:IV156"/>
+  <dimension ref="A2:H156"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E56" sqref="E56"/>
+      <selection pane="bottomRight" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4723,8 +4773,7 @@
     <col min="6" max="6" width="15.5" style="41" customWidth="1"/>
     <col min="7" max="7" width="28.09765625" style="28" customWidth="1"/>
     <col min="8" max="8" width="28.5" style="41" customWidth="1"/>
-    <col min="9" max="9" width="9" style="42" bestFit="1"/>
-    <col min="10" max="16384" width="9" style="42"/>
+    <col min="9" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4738,96 +4787,96 @@
       <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="135" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="130" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="130" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="130" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="130"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
@@ -4989,7 +5038,7 @@
       <c r="G16" s="50"/>
       <c r="H16" s="70"/>
     </row>
-    <row r="17" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="50" t="s">
         <v>176</v>
@@ -5005,7 +5054,7 @@
       <c r="G17" s="50"/>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="50" t="s">
         <v>178</v>
@@ -5022,7 +5071,7 @@
       <c r="G18" s="50"/>
       <c r="H18" s="70"/>
     </row>
-    <row r="19" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
       <c r="B19" s="52" t="s">
         <v>180</v>
@@ -5037,256 +5086,8 @@
       <c r="F19" s="71"/>
       <c r="G19" s="52"/>
       <c r="H19" s="71"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-      <c r="AE19"/>
-      <c r="AF19"/>
-      <c r="AG19"/>
-      <c r="AH19"/>
-      <c r="AI19"/>
-      <c r="AJ19"/>
-      <c r="AK19"/>
-      <c r="AL19"/>
-      <c r="AM19"/>
-      <c r="AN19"/>
-      <c r="AO19"/>
-      <c r="AP19"/>
-      <c r="AQ19"/>
-      <c r="AR19"/>
-      <c r="AS19"/>
-      <c r="AT19"/>
-      <c r="AU19"/>
-      <c r="AV19"/>
-      <c r="AW19"/>
-      <c r="AX19"/>
-      <c r="AY19"/>
-      <c r="AZ19"/>
-      <c r="BA19"/>
-      <c r="BB19"/>
-      <c r="BC19"/>
-      <c r="BD19"/>
-      <c r="BE19"/>
-      <c r="BF19"/>
-      <c r="BG19"/>
-      <c r="BH19"/>
-      <c r="BI19"/>
-      <c r="BJ19"/>
-      <c r="BK19"/>
-      <c r="BL19"/>
-      <c r="BM19"/>
-      <c r="BN19"/>
-      <c r="BO19"/>
-      <c r="BP19"/>
-      <c r="BQ19"/>
-      <c r="BR19"/>
-      <c r="BS19"/>
-      <c r="BT19"/>
-      <c r="BU19"/>
-      <c r="BV19"/>
-      <c r="BW19"/>
-      <c r="BX19"/>
-      <c r="BY19"/>
-      <c r="BZ19"/>
-      <c r="CA19"/>
-      <c r="CB19"/>
-      <c r="CC19"/>
-      <c r="CD19"/>
-      <c r="CE19"/>
-      <c r="CF19"/>
-      <c r="CG19"/>
-      <c r="CH19"/>
-      <c r="CI19"/>
-      <c r="CJ19"/>
-      <c r="CK19"/>
-      <c r="CL19"/>
-      <c r="CM19"/>
-      <c r="CN19"/>
-      <c r="CO19"/>
-      <c r="CP19"/>
-      <c r="CQ19"/>
-      <c r="CR19"/>
-      <c r="CS19"/>
-      <c r="CT19"/>
-      <c r="CU19"/>
-      <c r="CV19"/>
-      <c r="CW19"/>
-      <c r="CX19"/>
-      <c r="CY19"/>
-      <c r="CZ19"/>
-      <c r="DA19"/>
-      <c r="DB19"/>
-      <c r="DC19"/>
-      <c r="DD19"/>
-      <c r="DE19"/>
-      <c r="DF19"/>
-      <c r="DG19"/>
-      <c r="DH19"/>
-      <c r="DI19"/>
-      <c r="DJ19"/>
-      <c r="DK19"/>
-      <c r="DL19"/>
-      <c r="DM19"/>
-      <c r="DN19"/>
-      <c r="DO19"/>
-      <c r="DP19"/>
-      <c r="DQ19"/>
-      <c r="DR19"/>
-      <c r="DS19"/>
-      <c r="DT19"/>
-      <c r="DU19"/>
-      <c r="DV19"/>
-      <c r="DW19"/>
-      <c r="DX19"/>
-      <c r="DY19"/>
-      <c r="DZ19"/>
-      <c r="EA19"/>
-      <c r="EB19"/>
-      <c r="EC19"/>
-      <c r="ED19"/>
-      <c r="EE19"/>
-      <c r="EF19"/>
-      <c r="EG19"/>
-      <c r="EH19"/>
-      <c r="EI19"/>
-      <c r="EJ19"/>
-      <c r="EK19"/>
-      <c r="EL19"/>
-      <c r="EM19"/>
-      <c r="EN19"/>
-      <c r="EO19"/>
-      <c r="EP19"/>
-      <c r="EQ19"/>
-      <c r="ER19"/>
-      <c r="ES19"/>
-      <c r="ET19"/>
-      <c r="EU19"/>
-      <c r="EV19"/>
-      <c r="EW19"/>
-      <c r="EX19"/>
-      <c r="EY19"/>
-      <c r="EZ19"/>
-      <c r="FA19"/>
-      <c r="FB19"/>
-      <c r="FC19"/>
-      <c r="FD19"/>
-      <c r="FE19"/>
-      <c r="FF19"/>
-      <c r="FG19"/>
-      <c r="FH19"/>
-      <c r="FI19"/>
-      <c r="FJ19"/>
-      <c r="FK19"/>
-      <c r="FL19"/>
-      <c r="FM19"/>
-      <c r="FN19"/>
-      <c r="FO19"/>
-      <c r="FP19"/>
-      <c r="FQ19"/>
-      <c r="FR19"/>
-      <c r="FS19"/>
-      <c r="FT19"/>
-      <c r="FU19"/>
-      <c r="FV19"/>
-      <c r="FW19"/>
-      <c r="FX19"/>
-      <c r="FY19"/>
-      <c r="FZ19"/>
-      <c r="GA19"/>
-      <c r="GB19"/>
-      <c r="GC19"/>
-      <c r="GD19"/>
-      <c r="GE19"/>
-      <c r="GF19"/>
-      <c r="GG19"/>
-      <c r="GH19"/>
-      <c r="GI19"/>
-      <c r="GJ19"/>
-      <c r="GK19"/>
-      <c r="GL19"/>
-      <c r="GM19"/>
-      <c r="GN19"/>
-      <c r="GO19"/>
-      <c r="GP19"/>
-      <c r="GQ19"/>
-      <c r="GR19"/>
-      <c r="GS19"/>
-      <c r="GT19"/>
-      <c r="GU19"/>
-      <c r="GV19"/>
-      <c r="GW19"/>
-      <c r="GX19"/>
-      <c r="GY19"/>
-      <c r="GZ19"/>
-      <c r="HA19"/>
-      <c r="HB19"/>
-      <c r="HC19"/>
-      <c r="HD19"/>
-      <c r="HE19"/>
-      <c r="HF19"/>
-      <c r="HG19"/>
-      <c r="HH19"/>
-      <c r="HI19"/>
-      <c r="HJ19"/>
-      <c r="HK19"/>
-      <c r="HL19"/>
-      <c r="HM19"/>
-      <c r="HN19"/>
-      <c r="HO19"/>
-      <c r="HP19"/>
-      <c r="HQ19"/>
-      <c r="HR19"/>
-      <c r="HS19"/>
-      <c r="HT19"/>
-      <c r="HU19"/>
-      <c r="HV19"/>
-      <c r="HW19"/>
-      <c r="HX19"/>
-      <c r="HY19"/>
-      <c r="HZ19"/>
-      <c r="IA19"/>
-      <c r="IB19"/>
-      <c r="IC19"/>
-      <c r="ID19"/>
-      <c r="IE19"/>
-      <c r="IF19"/>
-      <c r="IG19"/>
-      <c r="IH19"/>
-      <c r="II19"/>
-      <c r="IJ19"/>
-      <c r="IK19"/>
-      <c r="IL19"/>
-      <c r="IM19"/>
-      <c r="IN19"/>
-      <c r="IO19"/>
-      <c r="IP19"/>
-      <c r="IQ19"/>
-      <c r="IR19"/>
-      <c r="IS19"/>
-      <c r="IT19"/>
-      <c r="IU19"/>
-      <c r="IV19"/>
-    </row>
-    <row r="20" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
       <c r="B20" s="52" t="s">
         <v>182</v>
@@ -5302,7 +5103,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="71"/>
     </row>
-    <row r="21" spans="1:256" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
       <c r="B21" s="52" t="s">
         <v>184</v>
@@ -5317,253 +5118,8 @@
       <c r="F21" s="71"/>
       <c r="G21" s="52"/>
       <c r="H21" s="71"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="42"/>
-      <c r="AH21" s="42"/>
-      <c r="AI21" s="42"/>
-      <c r="AJ21" s="42"/>
-      <c r="AK21" s="42"/>
-      <c r="AL21" s="42"/>
-      <c r="AM21" s="42"/>
-      <c r="AN21" s="42"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="42"/>
-      <c r="AR21" s="42"/>
-      <c r="AS21" s="42"/>
-      <c r="AT21" s="42"/>
-      <c r="AU21" s="42"/>
-      <c r="AV21" s="42"/>
-      <c r="AW21" s="42"/>
-      <c r="AX21" s="42"/>
-      <c r="AY21" s="42"/>
-      <c r="AZ21" s="42"/>
-      <c r="BA21" s="42"/>
-      <c r="BB21" s="42"/>
-      <c r="BC21" s="42"/>
-      <c r="BD21" s="42"/>
-      <c r="BE21" s="42"/>
-      <c r="BF21" s="42"/>
-      <c r="BG21" s="42"/>
-      <c r="BH21" s="42"/>
-      <c r="BI21" s="42"/>
-      <c r="BJ21" s="42"/>
-      <c r="BK21" s="42"/>
-      <c r="BL21" s="42"/>
-      <c r="BM21" s="42"/>
-      <c r="BN21" s="42"/>
-      <c r="BO21" s="42"/>
-      <c r="BP21" s="42"/>
-      <c r="BQ21" s="42"/>
-      <c r="BR21" s="42"/>
-      <c r="BS21" s="42"/>
-      <c r="BT21" s="42"/>
-      <c r="BU21" s="42"/>
-      <c r="BV21" s="42"/>
-      <c r="BW21" s="42"/>
-      <c r="BX21" s="42"/>
-      <c r="BY21" s="42"/>
-      <c r="BZ21" s="42"/>
-      <c r="CA21" s="42"/>
-      <c r="CB21" s="42"/>
-      <c r="CC21" s="42"/>
-      <c r="CD21" s="42"/>
-      <c r="CE21" s="42"/>
-      <c r="CF21" s="42"/>
-      <c r="CG21" s="42"/>
-      <c r="CH21" s="42"/>
-      <c r="CI21" s="42"/>
-      <c r="CJ21" s="42"/>
-      <c r="CK21" s="42"/>
-      <c r="CL21" s="42"/>
-      <c r="CM21" s="42"/>
-      <c r="CN21" s="42"/>
-      <c r="CO21" s="42"/>
-      <c r="CP21" s="42"/>
-      <c r="CQ21" s="42"/>
-      <c r="CR21" s="42"/>
-      <c r="CS21" s="42"/>
-      <c r="CT21" s="42"/>
-      <c r="CU21" s="42"/>
-      <c r="CV21" s="42"/>
-      <c r="CW21" s="42"/>
-      <c r="CX21" s="42"/>
-      <c r="CY21" s="42"/>
-      <c r="CZ21" s="42"/>
-      <c r="DA21" s="42"/>
-      <c r="DB21" s="42"/>
-      <c r="DC21" s="42"/>
-      <c r="DD21" s="42"/>
-      <c r="DE21" s="42"/>
-      <c r="DF21" s="42"/>
-      <c r="DG21" s="42"/>
-      <c r="DH21" s="42"/>
-      <c r="DI21" s="42"/>
-      <c r="DJ21" s="42"/>
-      <c r="DK21" s="42"/>
-      <c r="DL21" s="42"/>
-      <c r="DM21" s="42"/>
-      <c r="DN21" s="42"/>
-      <c r="DO21" s="42"/>
-      <c r="DP21" s="42"/>
-      <c r="DQ21" s="42"/>
-      <c r="DR21" s="42"/>
-      <c r="DS21" s="42"/>
-      <c r="DT21" s="42"/>
-      <c r="DU21" s="42"/>
-      <c r="DV21" s="42"/>
-      <c r="DW21" s="42"/>
-      <c r="DX21" s="42"/>
-      <c r="DY21" s="42"/>
-      <c r="DZ21" s="42"/>
-      <c r="EA21" s="42"/>
-      <c r="EB21" s="42"/>
-      <c r="EC21" s="42"/>
-      <c r="ED21" s="42"/>
-      <c r="EE21" s="42"/>
-      <c r="EF21" s="42"/>
-      <c r="EG21" s="42"/>
-      <c r="EH21" s="42"/>
-      <c r="EI21" s="42"/>
-      <c r="EJ21" s="42"/>
-      <c r="EK21" s="42"/>
-      <c r="EL21" s="42"/>
-      <c r="EM21" s="42"/>
-      <c r="EN21" s="42"/>
-      <c r="EO21" s="42"/>
-      <c r="EP21" s="42"/>
-      <c r="EQ21" s="42"/>
-      <c r="ER21" s="42"/>
-      <c r="ES21" s="42"/>
-      <c r="ET21" s="42"/>
-      <c r="EU21" s="42"/>
-      <c r="EV21" s="42"/>
-      <c r="EW21" s="42"/>
-      <c r="EX21" s="42"/>
-      <c r="EY21" s="42"/>
-      <c r="EZ21" s="42"/>
-      <c r="FA21" s="42"/>
-      <c r="FB21" s="42"/>
-      <c r="FC21" s="42"/>
-      <c r="FD21" s="42"/>
-      <c r="FE21" s="42"/>
-      <c r="FF21" s="42"/>
-      <c r="FG21" s="42"/>
-      <c r="FH21" s="42"/>
-      <c r="FI21" s="42"/>
-      <c r="FJ21" s="42"/>
-      <c r="FK21" s="42"/>
-      <c r="FL21" s="42"/>
-      <c r="FM21" s="42"/>
-      <c r="FN21" s="42"/>
-      <c r="FO21" s="42"/>
-      <c r="FP21" s="42"/>
-      <c r="FQ21" s="42"/>
-      <c r="FR21" s="42"/>
-      <c r="FS21" s="42"/>
-      <c r="FT21" s="42"/>
-      <c r="FU21" s="42"/>
-      <c r="FV21" s="42"/>
-      <c r="FW21" s="42"/>
-      <c r="FX21" s="42"/>
-      <c r="FY21" s="42"/>
-      <c r="FZ21" s="42"/>
-      <c r="GA21" s="42"/>
-      <c r="GB21" s="42"/>
-      <c r="GC21" s="42"/>
-      <c r="GD21" s="42"/>
-      <c r="GE21" s="42"/>
-      <c r="GF21" s="42"/>
-      <c r="GG21" s="42"/>
-      <c r="GH21" s="42"/>
-      <c r="GI21" s="42"/>
-      <c r="GJ21" s="42"/>
-      <c r="GK21" s="42"/>
-      <c r="GL21" s="42"/>
-      <c r="GM21" s="42"/>
-      <c r="GN21" s="42"/>
-      <c r="GO21" s="42"/>
-      <c r="GP21" s="42"/>
-      <c r="GQ21" s="42"/>
-      <c r="GR21" s="42"/>
-      <c r="GS21" s="42"/>
-      <c r="GT21" s="42"/>
-      <c r="GU21" s="42"/>
-      <c r="GV21" s="42"/>
-      <c r="GW21" s="42"/>
-      <c r="GX21" s="42"/>
-      <c r="GY21" s="42"/>
-      <c r="GZ21" s="42"/>
-      <c r="HA21" s="42"/>
-      <c r="HB21" s="42"/>
-      <c r="HC21" s="42"/>
-      <c r="HD21" s="42"/>
-      <c r="HE21" s="42"/>
-      <c r="HF21" s="42"/>
-      <c r="HG21" s="42"/>
-      <c r="HH21" s="42"/>
-      <c r="HI21" s="42"/>
-      <c r="HJ21" s="42"/>
-      <c r="HK21" s="42"/>
-      <c r="HL21" s="42"/>
-      <c r="HM21" s="42"/>
-      <c r="HN21" s="42"/>
-      <c r="HO21" s="42"/>
-      <c r="HP21" s="42"/>
-      <c r="HQ21" s="42"/>
-      <c r="HR21" s="42"/>
-      <c r="HS21" s="42"/>
-      <c r="HT21" s="42"/>
-      <c r="HU21" s="42"/>
-      <c r="HV21" s="42"/>
-      <c r="HW21" s="42"/>
-      <c r="HX21" s="42"/>
-      <c r="HY21" s="42"/>
-      <c r="HZ21" s="42"/>
-      <c r="IA21" s="42"/>
-      <c r="IB21" s="42"/>
-      <c r="IC21" s="42"/>
-      <c r="ID21" s="42"/>
-      <c r="IE21" s="42"/>
-      <c r="IF21" s="42"/>
-      <c r="IG21" s="42"/>
-      <c r="IH21" s="42"/>
-      <c r="II21" s="42"/>
-      <c r="IJ21" s="42"/>
-      <c r="IK21" s="42"/>
-      <c r="IL21" s="42"/>
-      <c r="IM21" s="42"/>
-      <c r="IN21" s="42"/>
-      <c r="IO21" s="42"/>
-      <c r="IP21" s="42"/>
-      <c r="IQ21" s="42"/>
-      <c r="IR21" s="42"/>
-      <c r="IS21" s="42"/>
-    </row>
-    <row r="22" spans="1:256" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
       <c r="B22" s="52" t="s">
         <v>186</v>
@@ -5578,253 +5134,8 @@
       <c r="F22" s="71"/>
       <c r="G22" s="52"/>
       <c r="H22" s="71"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="42"/>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="42"/>
-      <c r="AU22" s="42"/>
-      <c r="AV22" s="42"/>
-      <c r="AW22" s="42"/>
-      <c r="AX22" s="42"/>
-      <c r="AY22" s="42"/>
-      <c r="AZ22" s="42"/>
-      <c r="BA22" s="42"/>
-      <c r="BB22" s="42"/>
-      <c r="BC22" s="42"/>
-      <c r="BD22" s="42"/>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="42"/>
-      <c r="BG22" s="42"/>
-      <c r="BH22" s="42"/>
-      <c r="BI22" s="42"/>
-      <c r="BJ22" s="42"/>
-      <c r="BK22" s="42"/>
-      <c r="BL22" s="42"/>
-      <c r="BM22" s="42"/>
-      <c r="BN22" s="42"/>
-      <c r="BO22" s="42"/>
-      <c r="BP22" s="42"/>
-      <c r="BQ22" s="42"/>
-      <c r="BR22" s="42"/>
-      <c r="BS22" s="42"/>
-      <c r="BT22" s="42"/>
-      <c r="BU22" s="42"/>
-      <c r="BV22" s="42"/>
-      <c r="BW22" s="42"/>
-      <c r="BX22" s="42"/>
-      <c r="BY22" s="42"/>
-      <c r="BZ22" s="42"/>
-      <c r="CA22" s="42"/>
-      <c r="CB22" s="42"/>
-      <c r="CC22" s="42"/>
-      <c r="CD22" s="42"/>
-      <c r="CE22" s="42"/>
-      <c r="CF22" s="42"/>
-      <c r="CG22" s="42"/>
-      <c r="CH22" s="42"/>
-      <c r="CI22" s="42"/>
-      <c r="CJ22" s="42"/>
-      <c r="CK22" s="42"/>
-      <c r="CL22" s="42"/>
-      <c r="CM22" s="42"/>
-      <c r="CN22" s="42"/>
-      <c r="CO22" s="42"/>
-      <c r="CP22" s="42"/>
-      <c r="CQ22" s="42"/>
-      <c r="CR22" s="42"/>
-      <c r="CS22" s="42"/>
-      <c r="CT22" s="42"/>
-      <c r="CU22" s="42"/>
-      <c r="CV22" s="42"/>
-      <c r="CW22" s="42"/>
-      <c r="CX22" s="42"/>
-      <c r="CY22" s="42"/>
-      <c r="CZ22" s="42"/>
-      <c r="DA22" s="42"/>
-      <c r="DB22" s="42"/>
-      <c r="DC22" s="42"/>
-      <c r="DD22" s="42"/>
-      <c r="DE22" s="42"/>
-      <c r="DF22" s="42"/>
-      <c r="DG22" s="42"/>
-      <c r="DH22" s="42"/>
-      <c r="DI22" s="42"/>
-      <c r="DJ22" s="42"/>
-      <c r="DK22" s="42"/>
-      <c r="DL22" s="42"/>
-      <c r="DM22" s="42"/>
-      <c r="DN22" s="42"/>
-      <c r="DO22" s="42"/>
-      <c r="DP22" s="42"/>
-      <c r="DQ22" s="42"/>
-      <c r="DR22" s="42"/>
-      <c r="DS22" s="42"/>
-      <c r="DT22" s="42"/>
-      <c r="DU22" s="42"/>
-      <c r="DV22" s="42"/>
-      <c r="DW22" s="42"/>
-      <c r="DX22" s="42"/>
-      <c r="DY22" s="42"/>
-      <c r="DZ22" s="42"/>
-      <c r="EA22" s="42"/>
-      <c r="EB22" s="42"/>
-      <c r="EC22" s="42"/>
-      <c r="ED22" s="42"/>
-      <c r="EE22" s="42"/>
-      <c r="EF22" s="42"/>
-      <c r="EG22" s="42"/>
-      <c r="EH22" s="42"/>
-      <c r="EI22" s="42"/>
-      <c r="EJ22" s="42"/>
-      <c r="EK22" s="42"/>
-      <c r="EL22" s="42"/>
-      <c r="EM22" s="42"/>
-      <c r="EN22" s="42"/>
-      <c r="EO22" s="42"/>
-      <c r="EP22" s="42"/>
-      <c r="EQ22" s="42"/>
-      <c r="ER22" s="42"/>
-      <c r="ES22" s="42"/>
-      <c r="ET22" s="42"/>
-      <c r="EU22" s="42"/>
-      <c r="EV22" s="42"/>
-      <c r="EW22" s="42"/>
-      <c r="EX22" s="42"/>
-      <c r="EY22" s="42"/>
-      <c r="EZ22" s="42"/>
-      <c r="FA22" s="42"/>
-      <c r="FB22" s="42"/>
-      <c r="FC22" s="42"/>
-      <c r="FD22" s="42"/>
-      <c r="FE22" s="42"/>
-      <c r="FF22" s="42"/>
-      <c r="FG22" s="42"/>
-      <c r="FH22" s="42"/>
-      <c r="FI22" s="42"/>
-      <c r="FJ22" s="42"/>
-      <c r="FK22" s="42"/>
-      <c r="FL22" s="42"/>
-      <c r="FM22" s="42"/>
-      <c r="FN22" s="42"/>
-      <c r="FO22" s="42"/>
-      <c r="FP22" s="42"/>
-      <c r="FQ22" s="42"/>
-      <c r="FR22" s="42"/>
-      <c r="FS22" s="42"/>
-      <c r="FT22" s="42"/>
-      <c r="FU22" s="42"/>
-      <c r="FV22" s="42"/>
-      <c r="FW22" s="42"/>
-      <c r="FX22" s="42"/>
-      <c r="FY22" s="42"/>
-      <c r="FZ22" s="42"/>
-      <c r="GA22" s="42"/>
-      <c r="GB22" s="42"/>
-      <c r="GC22" s="42"/>
-      <c r="GD22" s="42"/>
-      <c r="GE22" s="42"/>
-      <c r="GF22" s="42"/>
-      <c r="GG22" s="42"/>
-      <c r="GH22" s="42"/>
-      <c r="GI22" s="42"/>
-      <c r="GJ22" s="42"/>
-      <c r="GK22" s="42"/>
-      <c r="GL22" s="42"/>
-      <c r="GM22" s="42"/>
-      <c r="GN22" s="42"/>
-      <c r="GO22" s="42"/>
-      <c r="GP22" s="42"/>
-      <c r="GQ22" s="42"/>
-      <c r="GR22" s="42"/>
-      <c r="GS22" s="42"/>
-      <c r="GT22" s="42"/>
-      <c r="GU22" s="42"/>
-      <c r="GV22" s="42"/>
-      <c r="GW22" s="42"/>
-      <c r="GX22" s="42"/>
-      <c r="GY22" s="42"/>
-      <c r="GZ22" s="42"/>
-      <c r="HA22" s="42"/>
-      <c r="HB22" s="42"/>
-      <c r="HC22" s="42"/>
-      <c r="HD22" s="42"/>
-      <c r="HE22" s="42"/>
-      <c r="HF22" s="42"/>
-      <c r="HG22" s="42"/>
-      <c r="HH22" s="42"/>
-      <c r="HI22" s="42"/>
-      <c r="HJ22" s="42"/>
-      <c r="HK22" s="42"/>
-      <c r="HL22" s="42"/>
-      <c r="HM22" s="42"/>
-      <c r="HN22" s="42"/>
-      <c r="HO22" s="42"/>
-      <c r="HP22" s="42"/>
-      <c r="HQ22" s="42"/>
-      <c r="HR22" s="42"/>
-      <c r="HS22" s="42"/>
-      <c r="HT22" s="42"/>
-      <c r="HU22" s="42"/>
-      <c r="HV22" s="42"/>
-      <c r="HW22" s="42"/>
-      <c r="HX22" s="42"/>
-      <c r="HY22" s="42"/>
-      <c r="HZ22" s="42"/>
-      <c r="IA22" s="42"/>
-      <c r="IB22" s="42"/>
-      <c r="IC22" s="42"/>
-      <c r="ID22" s="42"/>
-      <c r="IE22" s="42"/>
-      <c r="IF22" s="42"/>
-      <c r="IG22" s="42"/>
-      <c r="IH22" s="42"/>
-      <c r="II22" s="42"/>
-      <c r="IJ22" s="42"/>
-      <c r="IK22" s="42"/>
-      <c r="IL22" s="42"/>
-      <c r="IM22" s="42"/>
-      <c r="IN22" s="42"/>
-      <c r="IO22" s="42"/>
-      <c r="IP22" s="42"/>
-      <c r="IQ22" s="42"/>
-      <c r="IR22" s="42"/>
-      <c r="IS22" s="42"/>
-    </row>
-    <row r="23" spans="1:256" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="52" t="s">
         <v>188</v>
@@ -5839,253 +5150,8 @@
       <c r="F23" s="71"/>
       <c r="G23" s="52"/>
       <c r="H23" s="71"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="42"/>
-      <c r="AT23" s="42"/>
-      <c r="AU23" s="42"/>
-      <c r="AV23" s="42"/>
-      <c r="AW23" s="42"/>
-      <c r="AX23" s="42"/>
-      <c r="AY23" s="42"/>
-      <c r="AZ23" s="42"/>
-      <c r="BA23" s="42"/>
-      <c r="BB23" s="42"/>
-      <c r="BC23" s="42"/>
-      <c r="BD23" s="42"/>
-      <c r="BE23" s="42"/>
-      <c r="BF23" s="42"/>
-      <c r="BG23" s="42"/>
-      <c r="BH23" s="42"/>
-      <c r="BI23" s="42"/>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="42"/>
-      <c r="BL23" s="42"/>
-      <c r="BM23" s="42"/>
-      <c r="BN23" s="42"/>
-      <c r="BO23" s="42"/>
-      <c r="BP23" s="42"/>
-      <c r="BQ23" s="42"/>
-      <c r="BR23" s="42"/>
-      <c r="BS23" s="42"/>
-      <c r="BT23" s="42"/>
-      <c r="BU23" s="42"/>
-      <c r="BV23" s="42"/>
-      <c r="BW23" s="42"/>
-      <c r="BX23" s="42"/>
-      <c r="BY23" s="42"/>
-      <c r="BZ23" s="42"/>
-      <c r="CA23" s="42"/>
-      <c r="CB23" s="42"/>
-      <c r="CC23" s="42"/>
-      <c r="CD23" s="42"/>
-      <c r="CE23" s="42"/>
-      <c r="CF23" s="42"/>
-      <c r="CG23" s="42"/>
-      <c r="CH23" s="42"/>
-      <c r="CI23" s="42"/>
-      <c r="CJ23" s="42"/>
-      <c r="CK23" s="42"/>
-      <c r="CL23" s="42"/>
-      <c r="CM23" s="42"/>
-      <c r="CN23" s="42"/>
-      <c r="CO23" s="42"/>
-      <c r="CP23" s="42"/>
-      <c r="CQ23" s="42"/>
-      <c r="CR23" s="42"/>
-      <c r="CS23" s="42"/>
-      <c r="CT23" s="42"/>
-      <c r="CU23" s="42"/>
-      <c r="CV23" s="42"/>
-      <c r="CW23" s="42"/>
-      <c r="CX23" s="42"/>
-      <c r="CY23" s="42"/>
-      <c r="CZ23" s="42"/>
-      <c r="DA23" s="42"/>
-      <c r="DB23" s="42"/>
-      <c r="DC23" s="42"/>
-      <c r="DD23" s="42"/>
-      <c r="DE23" s="42"/>
-      <c r="DF23" s="42"/>
-      <c r="DG23" s="42"/>
-      <c r="DH23" s="42"/>
-      <c r="DI23" s="42"/>
-      <c r="DJ23" s="42"/>
-      <c r="DK23" s="42"/>
-      <c r="DL23" s="42"/>
-      <c r="DM23" s="42"/>
-      <c r="DN23" s="42"/>
-      <c r="DO23" s="42"/>
-      <c r="DP23" s="42"/>
-      <c r="DQ23" s="42"/>
-      <c r="DR23" s="42"/>
-      <c r="DS23" s="42"/>
-      <c r="DT23" s="42"/>
-      <c r="DU23" s="42"/>
-      <c r="DV23" s="42"/>
-      <c r="DW23" s="42"/>
-      <c r="DX23" s="42"/>
-      <c r="DY23" s="42"/>
-      <c r="DZ23" s="42"/>
-      <c r="EA23" s="42"/>
-      <c r="EB23" s="42"/>
-      <c r="EC23" s="42"/>
-      <c r="ED23" s="42"/>
-      <c r="EE23" s="42"/>
-      <c r="EF23" s="42"/>
-      <c r="EG23" s="42"/>
-      <c r="EH23" s="42"/>
-      <c r="EI23" s="42"/>
-      <c r="EJ23" s="42"/>
-      <c r="EK23" s="42"/>
-      <c r="EL23" s="42"/>
-      <c r="EM23" s="42"/>
-      <c r="EN23" s="42"/>
-      <c r="EO23" s="42"/>
-      <c r="EP23" s="42"/>
-      <c r="EQ23" s="42"/>
-      <c r="ER23" s="42"/>
-      <c r="ES23" s="42"/>
-      <c r="ET23" s="42"/>
-      <c r="EU23" s="42"/>
-      <c r="EV23" s="42"/>
-      <c r="EW23" s="42"/>
-      <c r="EX23" s="42"/>
-      <c r="EY23" s="42"/>
-      <c r="EZ23" s="42"/>
-      <c r="FA23" s="42"/>
-      <c r="FB23" s="42"/>
-      <c r="FC23" s="42"/>
-      <c r="FD23" s="42"/>
-      <c r="FE23" s="42"/>
-      <c r="FF23" s="42"/>
-      <c r="FG23" s="42"/>
-      <c r="FH23" s="42"/>
-      <c r="FI23" s="42"/>
-      <c r="FJ23" s="42"/>
-      <c r="FK23" s="42"/>
-      <c r="FL23" s="42"/>
-      <c r="FM23" s="42"/>
-      <c r="FN23" s="42"/>
-      <c r="FO23" s="42"/>
-      <c r="FP23" s="42"/>
-      <c r="FQ23" s="42"/>
-      <c r="FR23" s="42"/>
-      <c r="FS23" s="42"/>
-      <c r="FT23" s="42"/>
-      <c r="FU23" s="42"/>
-      <c r="FV23" s="42"/>
-      <c r="FW23" s="42"/>
-      <c r="FX23" s="42"/>
-      <c r="FY23" s="42"/>
-      <c r="FZ23" s="42"/>
-      <c r="GA23" s="42"/>
-      <c r="GB23" s="42"/>
-      <c r="GC23" s="42"/>
-      <c r="GD23" s="42"/>
-      <c r="GE23" s="42"/>
-      <c r="GF23" s="42"/>
-      <c r="GG23" s="42"/>
-      <c r="GH23" s="42"/>
-      <c r="GI23" s="42"/>
-      <c r="GJ23" s="42"/>
-      <c r="GK23" s="42"/>
-      <c r="GL23" s="42"/>
-      <c r="GM23" s="42"/>
-      <c r="GN23" s="42"/>
-      <c r="GO23" s="42"/>
-      <c r="GP23" s="42"/>
-      <c r="GQ23" s="42"/>
-      <c r="GR23" s="42"/>
-      <c r="GS23" s="42"/>
-      <c r="GT23" s="42"/>
-      <c r="GU23" s="42"/>
-      <c r="GV23" s="42"/>
-      <c r="GW23" s="42"/>
-      <c r="GX23" s="42"/>
-      <c r="GY23" s="42"/>
-      <c r="GZ23" s="42"/>
-      <c r="HA23" s="42"/>
-      <c r="HB23" s="42"/>
-      <c r="HC23" s="42"/>
-      <c r="HD23" s="42"/>
-      <c r="HE23" s="42"/>
-      <c r="HF23" s="42"/>
-      <c r="HG23" s="42"/>
-      <c r="HH23" s="42"/>
-      <c r="HI23" s="42"/>
-      <c r="HJ23" s="42"/>
-      <c r="HK23" s="42"/>
-      <c r="HL23" s="42"/>
-      <c r="HM23" s="42"/>
-      <c r="HN23" s="42"/>
-      <c r="HO23" s="42"/>
-      <c r="HP23" s="42"/>
-      <c r="HQ23" s="42"/>
-      <c r="HR23" s="42"/>
-      <c r="HS23" s="42"/>
-      <c r="HT23" s="42"/>
-      <c r="HU23" s="42"/>
-      <c r="HV23" s="42"/>
-      <c r="HW23" s="42"/>
-      <c r="HX23" s="42"/>
-      <c r="HY23" s="42"/>
-      <c r="HZ23" s="42"/>
-      <c r="IA23" s="42"/>
-      <c r="IB23" s="42"/>
-      <c r="IC23" s="42"/>
-      <c r="ID23" s="42"/>
-      <c r="IE23" s="42"/>
-      <c r="IF23" s="42"/>
-      <c r="IG23" s="42"/>
-      <c r="IH23" s="42"/>
-      <c r="II23" s="42"/>
-      <c r="IJ23" s="42"/>
-      <c r="IK23" s="42"/>
-      <c r="IL23" s="42"/>
-      <c r="IM23" s="42"/>
-      <c r="IN23" s="42"/>
-      <c r="IO23" s="42"/>
-      <c r="IP23" s="42"/>
-      <c r="IQ23" s="42"/>
-      <c r="IR23" s="42"/>
-      <c r="IS23" s="42"/>
-    </row>
-    <row r="24" spans="1:256" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
       <c r="B24" s="52" t="s">
         <v>190</v>
@@ -6100,253 +5166,8 @@
       <c r="F24" s="71"/>
       <c r="G24" s="52"/>
       <c r="H24" s="71"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="42"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="42"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="42"/>
-      <c r="AW24" s="42"/>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="42"/>
-      <c r="BA24" s="42"/>
-      <c r="BB24" s="42"/>
-      <c r="BC24" s="42"/>
-      <c r="BD24" s="42"/>
-      <c r="BE24" s="42"/>
-      <c r="BF24" s="42"/>
-      <c r="BG24" s="42"/>
-      <c r="BH24" s="42"/>
-      <c r="BI24" s="42"/>
-      <c r="BJ24" s="42"/>
-      <c r="BK24" s="42"/>
-      <c r="BL24" s="42"/>
-      <c r="BM24" s="42"/>
-      <c r="BN24" s="42"/>
-      <c r="BO24" s="42"/>
-      <c r="BP24" s="42"/>
-      <c r="BQ24" s="42"/>
-      <c r="BR24" s="42"/>
-      <c r="BS24" s="42"/>
-      <c r="BT24" s="42"/>
-      <c r="BU24" s="42"/>
-      <c r="BV24" s="42"/>
-      <c r="BW24" s="42"/>
-      <c r="BX24" s="42"/>
-      <c r="BY24" s="42"/>
-      <c r="BZ24" s="42"/>
-      <c r="CA24" s="42"/>
-      <c r="CB24" s="42"/>
-      <c r="CC24" s="42"/>
-      <c r="CD24" s="42"/>
-      <c r="CE24" s="42"/>
-      <c r="CF24" s="42"/>
-      <c r="CG24" s="42"/>
-      <c r="CH24" s="42"/>
-      <c r="CI24" s="42"/>
-      <c r="CJ24" s="42"/>
-      <c r="CK24" s="42"/>
-      <c r="CL24" s="42"/>
-      <c r="CM24" s="42"/>
-      <c r="CN24" s="42"/>
-      <c r="CO24" s="42"/>
-      <c r="CP24" s="42"/>
-      <c r="CQ24" s="42"/>
-      <c r="CR24" s="42"/>
-      <c r="CS24" s="42"/>
-      <c r="CT24" s="42"/>
-      <c r="CU24" s="42"/>
-      <c r="CV24" s="42"/>
-      <c r="CW24" s="42"/>
-      <c r="CX24" s="42"/>
-      <c r="CY24" s="42"/>
-      <c r="CZ24" s="42"/>
-      <c r="DA24" s="42"/>
-      <c r="DB24" s="42"/>
-      <c r="DC24" s="42"/>
-      <c r="DD24" s="42"/>
-      <c r="DE24" s="42"/>
-      <c r="DF24" s="42"/>
-      <c r="DG24" s="42"/>
-      <c r="DH24" s="42"/>
-      <c r="DI24" s="42"/>
-      <c r="DJ24" s="42"/>
-      <c r="DK24" s="42"/>
-      <c r="DL24" s="42"/>
-      <c r="DM24" s="42"/>
-      <c r="DN24" s="42"/>
-      <c r="DO24" s="42"/>
-      <c r="DP24" s="42"/>
-      <c r="DQ24" s="42"/>
-      <c r="DR24" s="42"/>
-      <c r="DS24" s="42"/>
-      <c r="DT24" s="42"/>
-      <c r="DU24" s="42"/>
-      <c r="DV24" s="42"/>
-      <c r="DW24" s="42"/>
-      <c r="DX24" s="42"/>
-      <c r="DY24" s="42"/>
-      <c r="DZ24" s="42"/>
-      <c r="EA24" s="42"/>
-      <c r="EB24" s="42"/>
-      <c r="EC24" s="42"/>
-      <c r="ED24" s="42"/>
-      <c r="EE24" s="42"/>
-      <c r="EF24" s="42"/>
-      <c r="EG24" s="42"/>
-      <c r="EH24" s="42"/>
-      <c r="EI24" s="42"/>
-      <c r="EJ24" s="42"/>
-      <c r="EK24" s="42"/>
-      <c r="EL24" s="42"/>
-      <c r="EM24" s="42"/>
-      <c r="EN24" s="42"/>
-      <c r="EO24" s="42"/>
-      <c r="EP24" s="42"/>
-      <c r="EQ24" s="42"/>
-      <c r="ER24" s="42"/>
-      <c r="ES24" s="42"/>
-      <c r="ET24" s="42"/>
-      <c r="EU24" s="42"/>
-      <c r="EV24" s="42"/>
-      <c r="EW24" s="42"/>
-      <c r="EX24" s="42"/>
-      <c r="EY24" s="42"/>
-      <c r="EZ24" s="42"/>
-      <c r="FA24" s="42"/>
-      <c r="FB24" s="42"/>
-      <c r="FC24" s="42"/>
-      <c r="FD24" s="42"/>
-      <c r="FE24" s="42"/>
-      <c r="FF24" s="42"/>
-      <c r="FG24" s="42"/>
-      <c r="FH24" s="42"/>
-      <c r="FI24" s="42"/>
-      <c r="FJ24" s="42"/>
-      <c r="FK24" s="42"/>
-      <c r="FL24" s="42"/>
-      <c r="FM24" s="42"/>
-      <c r="FN24" s="42"/>
-      <c r="FO24" s="42"/>
-      <c r="FP24" s="42"/>
-      <c r="FQ24" s="42"/>
-      <c r="FR24" s="42"/>
-      <c r="FS24" s="42"/>
-      <c r="FT24" s="42"/>
-      <c r="FU24" s="42"/>
-      <c r="FV24" s="42"/>
-      <c r="FW24" s="42"/>
-      <c r="FX24" s="42"/>
-      <c r="FY24" s="42"/>
-      <c r="FZ24" s="42"/>
-      <c r="GA24" s="42"/>
-      <c r="GB24" s="42"/>
-      <c r="GC24" s="42"/>
-      <c r="GD24" s="42"/>
-      <c r="GE24" s="42"/>
-      <c r="GF24" s="42"/>
-      <c r="GG24" s="42"/>
-      <c r="GH24" s="42"/>
-      <c r="GI24" s="42"/>
-      <c r="GJ24" s="42"/>
-      <c r="GK24" s="42"/>
-      <c r="GL24" s="42"/>
-      <c r="GM24" s="42"/>
-      <c r="GN24" s="42"/>
-      <c r="GO24" s="42"/>
-      <c r="GP24" s="42"/>
-      <c r="GQ24" s="42"/>
-      <c r="GR24" s="42"/>
-      <c r="GS24" s="42"/>
-      <c r="GT24" s="42"/>
-      <c r="GU24" s="42"/>
-      <c r="GV24" s="42"/>
-      <c r="GW24" s="42"/>
-      <c r="GX24" s="42"/>
-      <c r="GY24" s="42"/>
-      <c r="GZ24" s="42"/>
-      <c r="HA24" s="42"/>
-      <c r="HB24" s="42"/>
-      <c r="HC24" s="42"/>
-      <c r="HD24" s="42"/>
-      <c r="HE24" s="42"/>
-      <c r="HF24" s="42"/>
-      <c r="HG24" s="42"/>
-      <c r="HH24" s="42"/>
-      <c r="HI24" s="42"/>
-      <c r="HJ24" s="42"/>
-      <c r="HK24" s="42"/>
-      <c r="HL24" s="42"/>
-      <c r="HM24" s="42"/>
-      <c r="HN24" s="42"/>
-      <c r="HO24" s="42"/>
-      <c r="HP24" s="42"/>
-      <c r="HQ24" s="42"/>
-      <c r="HR24" s="42"/>
-      <c r="HS24" s="42"/>
-      <c r="HT24" s="42"/>
-      <c r="HU24" s="42"/>
-      <c r="HV24" s="42"/>
-      <c r="HW24" s="42"/>
-      <c r="HX24" s="42"/>
-      <c r="HY24" s="42"/>
-      <c r="HZ24" s="42"/>
-      <c r="IA24" s="42"/>
-      <c r="IB24" s="42"/>
-      <c r="IC24" s="42"/>
-      <c r="ID24" s="42"/>
-      <c r="IE24" s="42"/>
-      <c r="IF24" s="42"/>
-      <c r="IG24" s="42"/>
-      <c r="IH24" s="42"/>
-      <c r="II24" s="42"/>
-      <c r="IJ24" s="42"/>
-      <c r="IK24" s="42"/>
-      <c r="IL24" s="42"/>
-      <c r="IM24" s="42"/>
-      <c r="IN24" s="42"/>
-      <c r="IO24" s="42"/>
-      <c r="IP24" s="42"/>
-      <c r="IQ24" s="42"/>
-      <c r="IR24" s="42"/>
-      <c r="IS24" s="42"/>
-    </row>
-    <row r="25" spans="1:256" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="52" t="s">
         <v>192</v>
@@ -6361,253 +5182,8 @@
       <c r="F25" s="71"/>
       <c r="G25" s="52"/>
       <c r="H25" s="71"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
-      <c r="AK25" s="42"/>
-      <c r="AL25" s="42"/>
-      <c r="AM25" s="42"/>
-      <c r="AN25" s="42"/>
-      <c r="AO25" s="42"/>
-      <c r="AP25" s="42"/>
-      <c r="AQ25" s="42"/>
-      <c r="AR25" s="42"/>
-      <c r="AS25" s="42"/>
-      <c r="AT25" s="42"/>
-      <c r="AU25" s="42"/>
-      <c r="AV25" s="42"/>
-      <c r="AW25" s="42"/>
-      <c r="AX25" s="42"/>
-      <c r="AY25" s="42"/>
-      <c r="AZ25" s="42"/>
-      <c r="BA25" s="42"/>
-      <c r="BB25" s="42"/>
-      <c r="BC25" s="42"/>
-      <c r="BD25" s="42"/>
-      <c r="BE25" s="42"/>
-      <c r="BF25" s="42"/>
-      <c r="BG25" s="42"/>
-      <c r="BH25" s="42"/>
-      <c r="BI25" s="42"/>
-      <c r="BJ25" s="42"/>
-      <c r="BK25" s="42"/>
-      <c r="BL25" s="42"/>
-      <c r="BM25" s="42"/>
-      <c r="BN25" s="42"/>
-      <c r="BO25" s="42"/>
-      <c r="BP25" s="42"/>
-      <c r="BQ25" s="42"/>
-      <c r="BR25" s="42"/>
-      <c r="BS25" s="42"/>
-      <c r="BT25" s="42"/>
-      <c r="BU25" s="42"/>
-      <c r="BV25" s="42"/>
-      <c r="BW25" s="42"/>
-      <c r="BX25" s="42"/>
-      <c r="BY25" s="42"/>
-      <c r="BZ25" s="42"/>
-      <c r="CA25" s="42"/>
-      <c r="CB25" s="42"/>
-      <c r="CC25" s="42"/>
-      <c r="CD25" s="42"/>
-      <c r="CE25" s="42"/>
-      <c r="CF25" s="42"/>
-      <c r="CG25" s="42"/>
-      <c r="CH25" s="42"/>
-      <c r="CI25" s="42"/>
-      <c r="CJ25" s="42"/>
-      <c r="CK25" s="42"/>
-      <c r="CL25" s="42"/>
-      <c r="CM25" s="42"/>
-      <c r="CN25" s="42"/>
-      <c r="CO25" s="42"/>
-      <c r="CP25" s="42"/>
-      <c r="CQ25" s="42"/>
-      <c r="CR25" s="42"/>
-      <c r="CS25" s="42"/>
-      <c r="CT25" s="42"/>
-      <c r="CU25" s="42"/>
-      <c r="CV25" s="42"/>
-      <c r="CW25" s="42"/>
-      <c r="CX25" s="42"/>
-      <c r="CY25" s="42"/>
-      <c r="CZ25" s="42"/>
-      <c r="DA25" s="42"/>
-      <c r="DB25" s="42"/>
-      <c r="DC25" s="42"/>
-      <c r="DD25" s="42"/>
-      <c r="DE25" s="42"/>
-      <c r="DF25" s="42"/>
-      <c r="DG25" s="42"/>
-      <c r="DH25" s="42"/>
-      <c r="DI25" s="42"/>
-      <c r="DJ25" s="42"/>
-      <c r="DK25" s="42"/>
-      <c r="DL25" s="42"/>
-      <c r="DM25" s="42"/>
-      <c r="DN25" s="42"/>
-      <c r="DO25" s="42"/>
-      <c r="DP25" s="42"/>
-      <c r="DQ25" s="42"/>
-      <c r="DR25" s="42"/>
-      <c r="DS25" s="42"/>
-      <c r="DT25" s="42"/>
-      <c r="DU25" s="42"/>
-      <c r="DV25" s="42"/>
-      <c r="DW25" s="42"/>
-      <c r="DX25" s="42"/>
-      <c r="DY25" s="42"/>
-      <c r="DZ25" s="42"/>
-      <c r="EA25" s="42"/>
-      <c r="EB25" s="42"/>
-      <c r="EC25" s="42"/>
-      <c r="ED25" s="42"/>
-      <c r="EE25" s="42"/>
-      <c r="EF25" s="42"/>
-      <c r="EG25" s="42"/>
-      <c r="EH25" s="42"/>
-      <c r="EI25" s="42"/>
-      <c r="EJ25" s="42"/>
-      <c r="EK25" s="42"/>
-      <c r="EL25" s="42"/>
-      <c r="EM25" s="42"/>
-      <c r="EN25" s="42"/>
-      <c r="EO25" s="42"/>
-      <c r="EP25" s="42"/>
-      <c r="EQ25" s="42"/>
-      <c r="ER25" s="42"/>
-      <c r="ES25" s="42"/>
-      <c r="ET25" s="42"/>
-      <c r="EU25" s="42"/>
-      <c r="EV25" s="42"/>
-      <c r="EW25" s="42"/>
-      <c r="EX25" s="42"/>
-      <c r="EY25" s="42"/>
-      <c r="EZ25" s="42"/>
-      <c r="FA25" s="42"/>
-      <c r="FB25" s="42"/>
-      <c r="FC25" s="42"/>
-      <c r="FD25" s="42"/>
-      <c r="FE25" s="42"/>
-      <c r="FF25" s="42"/>
-      <c r="FG25" s="42"/>
-      <c r="FH25" s="42"/>
-      <c r="FI25" s="42"/>
-      <c r="FJ25" s="42"/>
-      <c r="FK25" s="42"/>
-      <c r="FL25" s="42"/>
-      <c r="FM25" s="42"/>
-      <c r="FN25" s="42"/>
-      <c r="FO25" s="42"/>
-      <c r="FP25" s="42"/>
-      <c r="FQ25" s="42"/>
-      <c r="FR25" s="42"/>
-      <c r="FS25" s="42"/>
-      <c r="FT25" s="42"/>
-      <c r="FU25" s="42"/>
-      <c r="FV25" s="42"/>
-      <c r="FW25" s="42"/>
-      <c r="FX25" s="42"/>
-      <c r="FY25" s="42"/>
-      <c r="FZ25" s="42"/>
-      <c r="GA25" s="42"/>
-      <c r="GB25" s="42"/>
-      <c r="GC25" s="42"/>
-      <c r="GD25" s="42"/>
-      <c r="GE25" s="42"/>
-      <c r="GF25" s="42"/>
-      <c r="GG25" s="42"/>
-      <c r="GH25" s="42"/>
-      <c r="GI25" s="42"/>
-      <c r="GJ25" s="42"/>
-      <c r="GK25" s="42"/>
-      <c r="GL25" s="42"/>
-      <c r="GM25" s="42"/>
-      <c r="GN25" s="42"/>
-      <c r="GO25" s="42"/>
-      <c r="GP25" s="42"/>
-      <c r="GQ25" s="42"/>
-      <c r="GR25" s="42"/>
-      <c r="GS25" s="42"/>
-      <c r="GT25" s="42"/>
-      <c r="GU25" s="42"/>
-      <c r="GV25" s="42"/>
-      <c r="GW25" s="42"/>
-      <c r="GX25" s="42"/>
-      <c r="GY25" s="42"/>
-      <c r="GZ25" s="42"/>
-      <c r="HA25" s="42"/>
-      <c r="HB25" s="42"/>
-      <c r="HC25" s="42"/>
-      <c r="HD25" s="42"/>
-      <c r="HE25" s="42"/>
-      <c r="HF25" s="42"/>
-      <c r="HG25" s="42"/>
-      <c r="HH25" s="42"/>
-      <c r="HI25" s="42"/>
-      <c r="HJ25" s="42"/>
-      <c r="HK25" s="42"/>
-      <c r="HL25" s="42"/>
-      <c r="HM25" s="42"/>
-      <c r="HN25" s="42"/>
-      <c r="HO25" s="42"/>
-      <c r="HP25" s="42"/>
-      <c r="HQ25" s="42"/>
-      <c r="HR25" s="42"/>
-      <c r="HS25" s="42"/>
-      <c r="HT25" s="42"/>
-      <c r="HU25" s="42"/>
-      <c r="HV25" s="42"/>
-      <c r="HW25" s="42"/>
-      <c r="HX25" s="42"/>
-      <c r="HY25" s="42"/>
-      <c r="HZ25" s="42"/>
-      <c r="IA25" s="42"/>
-      <c r="IB25" s="42"/>
-      <c r="IC25" s="42"/>
-      <c r="ID25" s="42"/>
-      <c r="IE25" s="42"/>
-      <c r="IF25" s="42"/>
-      <c r="IG25" s="42"/>
-      <c r="IH25" s="42"/>
-      <c r="II25" s="42"/>
-      <c r="IJ25" s="42"/>
-      <c r="IK25" s="42"/>
-      <c r="IL25" s="42"/>
-      <c r="IM25" s="42"/>
-      <c r="IN25" s="42"/>
-      <c r="IO25" s="42"/>
-      <c r="IP25" s="42"/>
-      <c r="IQ25" s="42"/>
-      <c r="IR25" s="42"/>
-      <c r="IS25" s="42"/>
-    </row>
-    <row r="26" spans="1:256" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
       <c r="B26" s="52" t="s">
         <v>194</v>
@@ -6622,253 +5198,8 @@
       <c r="F26" s="71"/>
       <c r="G26" s="52"/>
       <c r="H26" s="71"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="42"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="42"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="42"/>
-      <c r="AN26" s="42"/>
-      <c r="AO26" s="42"/>
-      <c r="AP26" s="42"/>
-      <c r="AQ26" s="42"/>
-      <c r="AR26" s="42"/>
-      <c r="AS26" s="42"/>
-      <c r="AT26" s="42"/>
-      <c r="AU26" s="42"/>
-      <c r="AV26" s="42"/>
-      <c r="AW26" s="42"/>
-      <c r="AX26" s="42"/>
-      <c r="AY26" s="42"/>
-      <c r="AZ26" s="42"/>
-      <c r="BA26" s="42"/>
-      <c r="BB26" s="42"/>
-      <c r="BC26" s="42"/>
-      <c r="BD26" s="42"/>
-      <c r="BE26" s="42"/>
-      <c r="BF26" s="42"/>
-      <c r="BG26" s="42"/>
-      <c r="BH26" s="42"/>
-      <c r="BI26" s="42"/>
-      <c r="BJ26" s="42"/>
-      <c r="BK26" s="42"/>
-      <c r="BL26" s="42"/>
-      <c r="BM26" s="42"/>
-      <c r="BN26" s="42"/>
-      <c r="BO26" s="42"/>
-      <c r="BP26" s="42"/>
-      <c r="BQ26" s="42"/>
-      <c r="BR26" s="42"/>
-      <c r="BS26" s="42"/>
-      <c r="BT26" s="42"/>
-      <c r="BU26" s="42"/>
-      <c r="BV26" s="42"/>
-      <c r="BW26" s="42"/>
-      <c r="BX26" s="42"/>
-      <c r="BY26" s="42"/>
-      <c r="BZ26" s="42"/>
-      <c r="CA26" s="42"/>
-      <c r="CB26" s="42"/>
-      <c r="CC26" s="42"/>
-      <c r="CD26" s="42"/>
-      <c r="CE26" s="42"/>
-      <c r="CF26" s="42"/>
-      <c r="CG26" s="42"/>
-      <c r="CH26" s="42"/>
-      <c r="CI26" s="42"/>
-      <c r="CJ26" s="42"/>
-      <c r="CK26" s="42"/>
-      <c r="CL26" s="42"/>
-      <c r="CM26" s="42"/>
-      <c r="CN26" s="42"/>
-      <c r="CO26" s="42"/>
-      <c r="CP26" s="42"/>
-      <c r="CQ26" s="42"/>
-      <c r="CR26" s="42"/>
-      <c r="CS26" s="42"/>
-      <c r="CT26" s="42"/>
-      <c r="CU26" s="42"/>
-      <c r="CV26" s="42"/>
-      <c r="CW26" s="42"/>
-      <c r="CX26" s="42"/>
-      <c r="CY26" s="42"/>
-      <c r="CZ26" s="42"/>
-      <c r="DA26" s="42"/>
-      <c r="DB26" s="42"/>
-      <c r="DC26" s="42"/>
-      <c r="DD26" s="42"/>
-      <c r="DE26" s="42"/>
-      <c r="DF26" s="42"/>
-      <c r="DG26" s="42"/>
-      <c r="DH26" s="42"/>
-      <c r="DI26" s="42"/>
-      <c r="DJ26" s="42"/>
-      <c r="DK26" s="42"/>
-      <c r="DL26" s="42"/>
-      <c r="DM26" s="42"/>
-      <c r="DN26" s="42"/>
-      <c r="DO26" s="42"/>
-      <c r="DP26" s="42"/>
-      <c r="DQ26" s="42"/>
-      <c r="DR26" s="42"/>
-      <c r="DS26" s="42"/>
-      <c r="DT26" s="42"/>
-      <c r="DU26" s="42"/>
-      <c r="DV26" s="42"/>
-      <c r="DW26" s="42"/>
-      <c r="DX26" s="42"/>
-      <c r="DY26" s="42"/>
-      <c r="DZ26" s="42"/>
-      <c r="EA26" s="42"/>
-      <c r="EB26" s="42"/>
-      <c r="EC26" s="42"/>
-      <c r="ED26" s="42"/>
-      <c r="EE26" s="42"/>
-      <c r="EF26" s="42"/>
-      <c r="EG26" s="42"/>
-      <c r="EH26" s="42"/>
-      <c r="EI26" s="42"/>
-      <c r="EJ26" s="42"/>
-      <c r="EK26" s="42"/>
-      <c r="EL26" s="42"/>
-      <c r="EM26" s="42"/>
-      <c r="EN26" s="42"/>
-      <c r="EO26" s="42"/>
-      <c r="EP26" s="42"/>
-      <c r="EQ26" s="42"/>
-      <c r="ER26" s="42"/>
-      <c r="ES26" s="42"/>
-      <c r="ET26" s="42"/>
-      <c r="EU26" s="42"/>
-      <c r="EV26" s="42"/>
-      <c r="EW26" s="42"/>
-      <c r="EX26" s="42"/>
-      <c r="EY26" s="42"/>
-      <c r="EZ26" s="42"/>
-      <c r="FA26" s="42"/>
-      <c r="FB26" s="42"/>
-      <c r="FC26" s="42"/>
-      <c r="FD26" s="42"/>
-      <c r="FE26" s="42"/>
-      <c r="FF26" s="42"/>
-      <c r="FG26" s="42"/>
-      <c r="FH26" s="42"/>
-      <c r="FI26" s="42"/>
-      <c r="FJ26" s="42"/>
-      <c r="FK26" s="42"/>
-      <c r="FL26" s="42"/>
-      <c r="FM26" s="42"/>
-      <c r="FN26" s="42"/>
-      <c r="FO26" s="42"/>
-      <c r="FP26" s="42"/>
-      <c r="FQ26" s="42"/>
-      <c r="FR26" s="42"/>
-      <c r="FS26" s="42"/>
-      <c r="FT26" s="42"/>
-      <c r="FU26" s="42"/>
-      <c r="FV26" s="42"/>
-      <c r="FW26" s="42"/>
-      <c r="FX26" s="42"/>
-      <c r="FY26" s="42"/>
-      <c r="FZ26" s="42"/>
-      <c r="GA26" s="42"/>
-      <c r="GB26" s="42"/>
-      <c r="GC26" s="42"/>
-      <c r="GD26" s="42"/>
-      <c r="GE26" s="42"/>
-      <c r="GF26" s="42"/>
-      <c r="GG26" s="42"/>
-      <c r="GH26" s="42"/>
-      <c r="GI26" s="42"/>
-      <c r="GJ26" s="42"/>
-      <c r="GK26" s="42"/>
-      <c r="GL26" s="42"/>
-      <c r="GM26" s="42"/>
-      <c r="GN26" s="42"/>
-      <c r="GO26" s="42"/>
-      <c r="GP26" s="42"/>
-      <c r="GQ26" s="42"/>
-      <c r="GR26" s="42"/>
-      <c r="GS26" s="42"/>
-      <c r="GT26" s="42"/>
-      <c r="GU26" s="42"/>
-      <c r="GV26" s="42"/>
-      <c r="GW26" s="42"/>
-      <c r="GX26" s="42"/>
-      <c r="GY26" s="42"/>
-      <c r="GZ26" s="42"/>
-      <c r="HA26" s="42"/>
-      <c r="HB26" s="42"/>
-      <c r="HC26" s="42"/>
-      <c r="HD26" s="42"/>
-      <c r="HE26" s="42"/>
-      <c r="HF26" s="42"/>
-      <c r="HG26" s="42"/>
-      <c r="HH26" s="42"/>
-      <c r="HI26" s="42"/>
-      <c r="HJ26" s="42"/>
-      <c r="HK26" s="42"/>
-      <c r="HL26" s="42"/>
-      <c r="HM26" s="42"/>
-      <c r="HN26" s="42"/>
-      <c r="HO26" s="42"/>
-      <c r="HP26" s="42"/>
-      <c r="HQ26" s="42"/>
-      <c r="HR26" s="42"/>
-      <c r="HS26" s="42"/>
-      <c r="HT26" s="42"/>
-      <c r="HU26" s="42"/>
-      <c r="HV26" s="42"/>
-      <c r="HW26" s="42"/>
-      <c r="HX26" s="42"/>
-      <c r="HY26" s="42"/>
-      <c r="HZ26" s="42"/>
-      <c r="IA26" s="42"/>
-      <c r="IB26" s="42"/>
-      <c r="IC26" s="42"/>
-      <c r="ID26" s="42"/>
-      <c r="IE26" s="42"/>
-      <c r="IF26" s="42"/>
-      <c r="IG26" s="42"/>
-      <c r="IH26" s="42"/>
-      <c r="II26" s="42"/>
-      <c r="IJ26" s="42"/>
-      <c r="IK26" s="42"/>
-      <c r="IL26" s="42"/>
-      <c r="IM26" s="42"/>
-      <c r="IN26" s="42"/>
-      <c r="IO26" s="42"/>
-      <c r="IP26" s="42"/>
-      <c r="IQ26" s="42"/>
-      <c r="IR26" s="42"/>
-      <c r="IS26" s="42"/>
-    </row>
-    <row r="27" spans="1:256" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
       <c r="B27" s="54" t="s">
         <v>196</v>
@@ -6883,253 +5214,8 @@
       <c r="F27" s="72"/>
       <c r="G27" s="73"/>
       <c r="H27" s="74"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="42"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="42"/>
-      <c r="AL27" s="42"/>
-      <c r="AM27" s="42"/>
-      <c r="AN27" s="42"/>
-      <c r="AO27" s="42"/>
-      <c r="AP27" s="42"/>
-      <c r="AQ27" s="42"/>
-      <c r="AR27" s="42"/>
-      <c r="AS27" s="42"/>
-      <c r="AT27" s="42"/>
-      <c r="AU27" s="42"/>
-      <c r="AV27" s="42"/>
-      <c r="AW27" s="42"/>
-      <c r="AX27" s="42"/>
-      <c r="AY27" s="42"/>
-      <c r="AZ27" s="42"/>
-      <c r="BA27" s="42"/>
-      <c r="BB27" s="42"/>
-      <c r="BC27" s="42"/>
-      <c r="BD27" s="42"/>
-      <c r="BE27" s="42"/>
-      <c r="BF27" s="42"/>
-      <c r="BG27" s="42"/>
-      <c r="BH27" s="42"/>
-      <c r="BI27" s="42"/>
-      <c r="BJ27" s="42"/>
-      <c r="BK27" s="42"/>
-      <c r="BL27" s="42"/>
-      <c r="BM27" s="42"/>
-      <c r="BN27" s="42"/>
-      <c r="BO27" s="42"/>
-      <c r="BP27" s="42"/>
-      <c r="BQ27" s="42"/>
-      <c r="BR27" s="42"/>
-      <c r="BS27" s="42"/>
-      <c r="BT27" s="42"/>
-      <c r="BU27" s="42"/>
-      <c r="BV27" s="42"/>
-      <c r="BW27" s="42"/>
-      <c r="BX27" s="42"/>
-      <c r="BY27" s="42"/>
-      <c r="BZ27" s="42"/>
-      <c r="CA27" s="42"/>
-      <c r="CB27" s="42"/>
-      <c r="CC27" s="42"/>
-      <c r="CD27" s="42"/>
-      <c r="CE27" s="42"/>
-      <c r="CF27" s="42"/>
-      <c r="CG27" s="42"/>
-      <c r="CH27" s="42"/>
-      <c r="CI27" s="42"/>
-      <c r="CJ27" s="42"/>
-      <c r="CK27" s="42"/>
-      <c r="CL27" s="42"/>
-      <c r="CM27" s="42"/>
-      <c r="CN27" s="42"/>
-      <c r="CO27" s="42"/>
-      <c r="CP27" s="42"/>
-      <c r="CQ27" s="42"/>
-      <c r="CR27" s="42"/>
-      <c r="CS27" s="42"/>
-      <c r="CT27" s="42"/>
-      <c r="CU27" s="42"/>
-      <c r="CV27" s="42"/>
-      <c r="CW27" s="42"/>
-      <c r="CX27" s="42"/>
-      <c r="CY27" s="42"/>
-      <c r="CZ27" s="42"/>
-      <c r="DA27" s="42"/>
-      <c r="DB27" s="42"/>
-      <c r="DC27" s="42"/>
-      <c r="DD27" s="42"/>
-      <c r="DE27" s="42"/>
-      <c r="DF27" s="42"/>
-      <c r="DG27" s="42"/>
-      <c r="DH27" s="42"/>
-      <c r="DI27" s="42"/>
-      <c r="DJ27" s="42"/>
-      <c r="DK27" s="42"/>
-      <c r="DL27" s="42"/>
-      <c r="DM27" s="42"/>
-      <c r="DN27" s="42"/>
-      <c r="DO27" s="42"/>
-      <c r="DP27" s="42"/>
-      <c r="DQ27" s="42"/>
-      <c r="DR27" s="42"/>
-      <c r="DS27" s="42"/>
-      <c r="DT27" s="42"/>
-      <c r="DU27" s="42"/>
-      <c r="DV27" s="42"/>
-      <c r="DW27" s="42"/>
-      <c r="DX27" s="42"/>
-      <c r="DY27" s="42"/>
-      <c r="DZ27" s="42"/>
-      <c r="EA27" s="42"/>
-      <c r="EB27" s="42"/>
-      <c r="EC27" s="42"/>
-      <c r="ED27" s="42"/>
-      <c r="EE27" s="42"/>
-      <c r="EF27" s="42"/>
-      <c r="EG27" s="42"/>
-      <c r="EH27" s="42"/>
-      <c r="EI27" s="42"/>
-      <c r="EJ27" s="42"/>
-      <c r="EK27" s="42"/>
-      <c r="EL27" s="42"/>
-      <c r="EM27" s="42"/>
-      <c r="EN27" s="42"/>
-      <c r="EO27" s="42"/>
-      <c r="EP27" s="42"/>
-      <c r="EQ27" s="42"/>
-      <c r="ER27" s="42"/>
-      <c r="ES27" s="42"/>
-      <c r="ET27" s="42"/>
-      <c r="EU27" s="42"/>
-      <c r="EV27" s="42"/>
-      <c r="EW27" s="42"/>
-      <c r="EX27" s="42"/>
-      <c r="EY27" s="42"/>
-      <c r="EZ27" s="42"/>
-      <c r="FA27" s="42"/>
-      <c r="FB27" s="42"/>
-      <c r="FC27" s="42"/>
-      <c r="FD27" s="42"/>
-      <c r="FE27" s="42"/>
-      <c r="FF27" s="42"/>
-      <c r="FG27" s="42"/>
-      <c r="FH27" s="42"/>
-      <c r="FI27" s="42"/>
-      <c r="FJ27" s="42"/>
-      <c r="FK27" s="42"/>
-      <c r="FL27" s="42"/>
-      <c r="FM27" s="42"/>
-      <c r="FN27" s="42"/>
-      <c r="FO27" s="42"/>
-      <c r="FP27" s="42"/>
-      <c r="FQ27" s="42"/>
-      <c r="FR27" s="42"/>
-      <c r="FS27" s="42"/>
-      <c r="FT27" s="42"/>
-      <c r="FU27" s="42"/>
-      <c r="FV27" s="42"/>
-      <c r="FW27" s="42"/>
-      <c r="FX27" s="42"/>
-      <c r="FY27" s="42"/>
-      <c r="FZ27" s="42"/>
-      <c r="GA27" s="42"/>
-      <c r="GB27" s="42"/>
-      <c r="GC27" s="42"/>
-      <c r="GD27" s="42"/>
-      <c r="GE27" s="42"/>
-      <c r="GF27" s="42"/>
-      <c r="GG27" s="42"/>
-      <c r="GH27" s="42"/>
-      <c r="GI27" s="42"/>
-      <c r="GJ27" s="42"/>
-      <c r="GK27" s="42"/>
-      <c r="GL27" s="42"/>
-      <c r="GM27" s="42"/>
-      <c r="GN27" s="42"/>
-      <c r="GO27" s="42"/>
-      <c r="GP27" s="42"/>
-      <c r="GQ27" s="42"/>
-      <c r="GR27" s="42"/>
-      <c r="GS27" s="42"/>
-      <c r="GT27" s="42"/>
-      <c r="GU27" s="42"/>
-      <c r="GV27" s="42"/>
-      <c r="GW27" s="42"/>
-      <c r="GX27" s="42"/>
-      <c r="GY27" s="42"/>
-      <c r="GZ27" s="42"/>
-      <c r="HA27" s="42"/>
-      <c r="HB27" s="42"/>
-      <c r="HC27" s="42"/>
-      <c r="HD27" s="42"/>
-      <c r="HE27" s="42"/>
-      <c r="HF27" s="42"/>
-      <c r="HG27" s="42"/>
-      <c r="HH27" s="42"/>
-      <c r="HI27" s="42"/>
-      <c r="HJ27" s="42"/>
-      <c r="HK27" s="42"/>
-      <c r="HL27" s="42"/>
-      <c r="HM27" s="42"/>
-      <c r="HN27" s="42"/>
-      <c r="HO27" s="42"/>
-      <c r="HP27" s="42"/>
-      <c r="HQ27" s="42"/>
-      <c r="HR27" s="42"/>
-      <c r="HS27" s="42"/>
-      <c r="HT27" s="42"/>
-      <c r="HU27" s="42"/>
-      <c r="HV27" s="42"/>
-      <c r="HW27" s="42"/>
-      <c r="HX27" s="42"/>
-      <c r="HY27" s="42"/>
-      <c r="HZ27" s="42"/>
-      <c r="IA27" s="42"/>
-      <c r="IB27" s="42"/>
-      <c r="IC27" s="42"/>
-      <c r="ID27" s="42"/>
-      <c r="IE27" s="42"/>
-      <c r="IF27" s="42"/>
-      <c r="IG27" s="42"/>
-      <c r="IH27" s="42"/>
-      <c r="II27" s="42"/>
-      <c r="IJ27" s="42"/>
-      <c r="IK27" s="42"/>
-      <c r="IL27" s="42"/>
-      <c r="IM27" s="42"/>
-      <c r="IN27" s="42"/>
-      <c r="IO27" s="42"/>
-      <c r="IP27" s="42"/>
-      <c r="IQ27" s="42"/>
-      <c r="IR27" s="42"/>
-      <c r="IS27" s="42"/>
-    </row>
-    <row r="28" spans="1:256" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
       <c r="B28" s="54" t="s">
         <v>199</v>
@@ -7144,253 +5230,8 @@
       <c r="F28" s="72"/>
       <c r="G28" s="73"/>
       <c r="H28" s="74"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="42"/>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="42"/>
-      <c r="AN28" s="42"/>
-      <c r="AO28" s="42"/>
-      <c r="AP28" s="42"/>
-      <c r="AQ28" s="42"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42"/>
-      <c r="AT28" s="42"/>
-      <c r="AU28" s="42"/>
-      <c r="AV28" s="42"/>
-      <c r="AW28" s="42"/>
-      <c r="AX28" s="42"/>
-      <c r="AY28" s="42"/>
-      <c r="AZ28" s="42"/>
-      <c r="BA28" s="42"/>
-      <c r="BB28" s="42"/>
-      <c r="BC28" s="42"/>
-      <c r="BD28" s="42"/>
-      <c r="BE28" s="42"/>
-      <c r="BF28" s="42"/>
-      <c r="BG28" s="42"/>
-      <c r="BH28" s="42"/>
-      <c r="BI28" s="42"/>
-      <c r="BJ28" s="42"/>
-      <c r="BK28" s="42"/>
-      <c r="BL28" s="42"/>
-      <c r="BM28" s="42"/>
-      <c r="BN28" s="42"/>
-      <c r="BO28" s="42"/>
-      <c r="BP28" s="42"/>
-      <c r="BQ28" s="42"/>
-      <c r="BR28" s="42"/>
-      <c r="BS28" s="42"/>
-      <c r="BT28" s="42"/>
-      <c r="BU28" s="42"/>
-      <c r="BV28" s="42"/>
-      <c r="BW28" s="42"/>
-      <c r="BX28" s="42"/>
-      <c r="BY28" s="42"/>
-      <c r="BZ28" s="42"/>
-      <c r="CA28" s="42"/>
-      <c r="CB28" s="42"/>
-      <c r="CC28" s="42"/>
-      <c r="CD28" s="42"/>
-      <c r="CE28" s="42"/>
-      <c r="CF28" s="42"/>
-      <c r="CG28" s="42"/>
-      <c r="CH28" s="42"/>
-      <c r="CI28" s="42"/>
-      <c r="CJ28" s="42"/>
-      <c r="CK28" s="42"/>
-      <c r="CL28" s="42"/>
-      <c r="CM28" s="42"/>
-      <c r="CN28" s="42"/>
-      <c r="CO28" s="42"/>
-      <c r="CP28" s="42"/>
-      <c r="CQ28" s="42"/>
-      <c r="CR28" s="42"/>
-      <c r="CS28" s="42"/>
-      <c r="CT28" s="42"/>
-      <c r="CU28" s="42"/>
-      <c r="CV28" s="42"/>
-      <c r="CW28" s="42"/>
-      <c r="CX28" s="42"/>
-      <c r="CY28" s="42"/>
-      <c r="CZ28" s="42"/>
-      <c r="DA28" s="42"/>
-      <c r="DB28" s="42"/>
-      <c r="DC28" s="42"/>
-      <c r="DD28" s="42"/>
-      <c r="DE28" s="42"/>
-      <c r="DF28" s="42"/>
-      <c r="DG28" s="42"/>
-      <c r="DH28" s="42"/>
-      <c r="DI28" s="42"/>
-      <c r="DJ28" s="42"/>
-      <c r="DK28" s="42"/>
-      <c r="DL28" s="42"/>
-      <c r="DM28" s="42"/>
-      <c r="DN28" s="42"/>
-      <c r="DO28" s="42"/>
-      <c r="DP28" s="42"/>
-      <c r="DQ28" s="42"/>
-      <c r="DR28" s="42"/>
-      <c r="DS28" s="42"/>
-      <c r="DT28" s="42"/>
-      <c r="DU28" s="42"/>
-      <c r="DV28" s="42"/>
-      <c r="DW28" s="42"/>
-      <c r="DX28" s="42"/>
-      <c r="DY28" s="42"/>
-      <c r="DZ28" s="42"/>
-      <c r="EA28" s="42"/>
-      <c r="EB28" s="42"/>
-      <c r="EC28" s="42"/>
-      <c r="ED28" s="42"/>
-      <c r="EE28" s="42"/>
-      <c r="EF28" s="42"/>
-      <c r="EG28" s="42"/>
-      <c r="EH28" s="42"/>
-      <c r="EI28" s="42"/>
-      <c r="EJ28" s="42"/>
-      <c r="EK28" s="42"/>
-      <c r="EL28" s="42"/>
-      <c r="EM28" s="42"/>
-      <c r="EN28" s="42"/>
-      <c r="EO28" s="42"/>
-      <c r="EP28" s="42"/>
-      <c r="EQ28" s="42"/>
-      <c r="ER28" s="42"/>
-      <c r="ES28" s="42"/>
-      <c r="ET28" s="42"/>
-      <c r="EU28" s="42"/>
-      <c r="EV28" s="42"/>
-      <c r="EW28" s="42"/>
-      <c r="EX28" s="42"/>
-      <c r="EY28" s="42"/>
-      <c r="EZ28" s="42"/>
-      <c r="FA28" s="42"/>
-      <c r="FB28" s="42"/>
-      <c r="FC28" s="42"/>
-      <c r="FD28" s="42"/>
-      <c r="FE28" s="42"/>
-      <c r="FF28" s="42"/>
-      <c r="FG28" s="42"/>
-      <c r="FH28" s="42"/>
-      <c r="FI28" s="42"/>
-      <c r="FJ28" s="42"/>
-      <c r="FK28" s="42"/>
-      <c r="FL28" s="42"/>
-      <c r="FM28" s="42"/>
-      <c r="FN28" s="42"/>
-      <c r="FO28" s="42"/>
-      <c r="FP28" s="42"/>
-      <c r="FQ28" s="42"/>
-      <c r="FR28" s="42"/>
-      <c r="FS28" s="42"/>
-      <c r="FT28" s="42"/>
-      <c r="FU28" s="42"/>
-      <c r="FV28" s="42"/>
-      <c r="FW28" s="42"/>
-      <c r="FX28" s="42"/>
-      <c r="FY28" s="42"/>
-      <c r="FZ28" s="42"/>
-      <c r="GA28" s="42"/>
-      <c r="GB28" s="42"/>
-      <c r="GC28" s="42"/>
-      <c r="GD28" s="42"/>
-      <c r="GE28" s="42"/>
-      <c r="GF28" s="42"/>
-      <c r="GG28" s="42"/>
-      <c r="GH28" s="42"/>
-      <c r="GI28" s="42"/>
-      <c r="GJ28" s="42"/>
-      <c r="GK28" s="42"/>
-      <c r="GL28" s="42"/>
-      <c r="GM28" s="42"/>
-      <c r="GN28" s="42"/>
-      <c r="GO28" s="42"/>
-      <c r="GP28" s="42"/>
-      <c r="GQ28" s="42"/>
-      <c r="GR28" s="42"/>
-      <c r="GS28" s="42"/>
-      <c r="GT28" s="42"/>
-      <c r="GU28" s="42"/>
-      <c r="GV28" s="42"/>
-      <c r="GW28" s="42"/>
-      <c r="GX28" s="42"/>
-      <c r="GY28" s="42"/>
-      <c r="GZ28" s="42"/>
-      <c r="HA28" s="42"/>
-      <c r="HB28" s="42"/>
-      <c r="HC28" s="42"/>
-      <c r="HD28" s="42"/>
-      <c r="HE28" s="42"/>
-      <c r="HF28" s="42"/>
-      <c r="HG28" s="42"/>
-      <c r="HH28" s="42"/>
-      <c r="HI28" s="42"/>
-      <c r="HJ28" s="42"/>
-      <c r="HK28" s="42"/>
-      <c r="HL28" s="42"/>
-      <c r="HM28" s="42"/>
-      <c r="HN28" s="42"/>
-      <c r="HO28" s="42"/>
-      <c r="HP28" s="42"/>
-      <c r="HQ28" s="42"/>
-      <c r="HR28" s="42"/>
-      <c r="HS28" s="42"/>
-      <c r="HT28" s="42"/>
-      <c r="HU28" s="42"/>
-      <c r="HV28" s="42"/>
-      <c r="HW28" s="42"/>
-      <c r="HX28" s="42"/>
-      <c r="HY28" s="42"/>
-      <c r="HZ28" s="42"/>
-      <c r="IA28" s="42"/>
-      <c r="IB28" s="42"/>
-      <c r="IC28" s="42"/>
-      <c r="ID28" s="42"/>
-      <c r="IE28" s="42"/>
-      <c r="IF28" s="42"/>
-      <c r="IG28" s="42"/>
-      <c r="IH28" s="42"/>
-      <c r="II28" s="42"/>
-      <c r="IJ28" s="42"/>
-      <c r="IK28" s="42"/>
-      <c r="IL28" s="42"/>
-      <c r="IM28" s="42"/>
-      <c r="IN28" s="42"/>
-      <c r="IO28" s="42"/>
-      <c r="IP28" s="42"/>
-      <c r="IQ28" s="42"/>
-      <c r="IR28" s="42"/>
-      <c r="IS28" s="42"/>
-    </row>
-    <row r="29" spans="1:256" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
       <c r="B29" s="54" t="s">
         <v>201</v>
@@ -7405,253 +5246,8 @@
       <c r="F29" s="72"/>
       <c r="G29" s="73"/>
       <c r="H29" s="74"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="42"/>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="42"/>
-      <c r="AH29" s="42"/>
-      <c r="AI29" s="42"/>
-      <c r="AJ29" s="42"/>
-      <c r="AK29" s="42"/>
-      <c r="AL29" s="42"/>
-      <c r="AM29" s="42"/>
-      <c r="AN29" s="42"/>
-      <c r="AO29" s="42"/>
-      <c r="AP29" s="42"/>
-      <c r="AQ29" s="42"/>
-      <c r="AR29" s="42"/>
-      <c r="AS29" s="42"/>
-      <c r="AT29" s="42"/>
-      <c r="AU29" s="42"/>
-      <c r="AV29" s="42"/>
-      <c r="AW29" s="42"/>
-      <c r="AX29" s="42"/>
-      <c r="AY29" s="42"/>
-      <c r="AZ29" s="42"/>
-      <c r="BA29" s="42"/>
-      <c r="BB29" s="42"/>
-      <c r="BC29" s="42"/>
-      <c r="BD29" s="42"/>
-      <c r="BE29" s="42"/>
-      <c r="BF29" s="42"/>
-      <c r="BG29" s="42"/>
-      <c r="BH29" s="42"/>
-      <c r="BI29" s="42"/>
-      <c r="BJ29" s="42"/>
-      <c r="BK29" s="42"/>
-      <c r="BL29" s="42"/>
-      <c r="BM29" s="42"/>
-      <c r="BN29" s="42"/>
-      <c r="BO29" s="42"/>
-      <c r="BP29" s="42"/>
-      <c r="BQ29" s="42"/>
-      <c r="BR29" s="42"/>
-      <c r="BS29" s="42"/>
-      <c r="BT29" s="42"/>
-      <c r="BU29" s="42"/>
-      <c r="BV29" s="42"/>
-      <c r="BW29" s="42"/>
-      <c r="BX29" s="42"/>
-      <c r="BY29" s="42"/>
-      <c r="BZ29" s="42"/>
-      <c r="CA29" s="42"/>
-      <c r="CB29" s="42"/>
-      <c r="CC29" s="42"/>
-      <c r="CD29" s="42"/>
-      <c r="CE29" s="42"/>
-      <c r="CF29" s="42"/>
-      <c r="CG29" s="42"/>
-      <c r="CH29" s="42"/>
-      <c r="CI29" s="42"/>
-      <c r="CJ29" s="42"/>
-      <c r="CK29" s="42"/>
-      <c r="CL29" s="42"/>
-      <c r="CM29" s="42"/>
-      <c r="CN29" s="42"/>
-      <c r="CO29" s="42"/>
-      <c r="CP29" s="42"/>
-      <c r="CQ29" s="42"/>
-      <c r="CR29" s="42"/>
-      <c r="CS29" s="42"/>
-      <c r="CT29" s="42"/>
-      <c r="CU29" s="42"/>
-      <c r="CV29" s="42"/>
-      <c r="CW29" s="42"/>
-      <c r="CX29" s="42"/>
-      <c r="CY29" s="42"/>
-      <c r="CZ29" s="42"/>
-      <c r="DA29" s="42"/>
-      <c r="DB29" s="42"/>
-      <c r="DC29" s="42"/>
-      <c r="DD29" s="42"/>
-      <c r="DE29" s="42"/>
-      <c r="DF29" s="42"/>
-      <c r="DG29" s="42"/>
-      <c r="DH29" s="42"/>
-      <c r="DI29" s="42"/>
-      <c r="DJ29" s="42"/>
-      <c r="DK29" s="42"/>
-      <c r="DL29" s="42"/>
-      <c r="DM29" s="42"/>
-      <c r="DN29" s="42"/>
-      <c r="DO29" s="42"/>
-      <c r="DP29" s="42"/>
-      <c r="DQ29" s="42"/>
-      <c r="DR29" s="42"/>
-      <c r="DS29" s="42"/>
-      <c r="DT29" s="42"/>
-      <c r="DU29" s="42"/>
-      <c r="DV29" s="42"/>
-      <c r="DW29" s="42"/>
-      <c r="DX29" s="42"/>
-      <c r="DY29" s="42"/>
-      <c r="DZ29" s="42"/>
-      <c r="EA29" s="42"/>
-      <c r="EB29" s="42"/>
-      <c r="EC29" s="42"/>
-      <c r="ED29" s="42"/>
-      <c r="EE29" s="42"/>
-      <c r="EF29" s="42"/>
-      <c r="EG29" s="42"/>
-      <c r="EH29" s="42"/>
-      <c r="EI29" s="42"/>
-      <c r="EJ29" s="42"/>
-      <c r="EK29" s="42"/>
-      <c r="EL29" s="42"/>
-      <c r="EM29" s="42"/>
-      <c r="EN29" s="42"/>
-      <c r="EO29" s="42"/>
-      <c r="EP29" s="42"/>
-      <c r="EQ29" s="42"/>
-      <c r="ER29" s="42"/>
-      <c r="ES29" s="42"/>
-      <c r="ET29" s="42"/>
-      <c r="EU29" s="42"/>
-      <c r="EV29" s="42"/>
-      <c r="EW29" s="42"/>
-      <c r="EX29" s="42"/>
-      <c r="EY29" s="42"/>
-      <c r="EZ29" s="42"/>
-      <c r="FA29" s="42"/>
-      <c r="FB29" s="42"/>
-      <c r="FC29" s="42"/>
-      <c r="FD29" s="42"/>
-      <c r="FE29" s="42"/>
-      <c r="FF29" s="42"/>
-      <c r="FG29" s="42"/>
-      <c r="FH29" s="42"/>
-      <c r="FI29" s="42"/>
-      <c r="FJ29" s="42"/>
-      <c r="FK29" s="42"/>
-      <c r="FL29" s="42"/>
-      <c r="FM29" s="42"/>
-      <c r="FN29" s="42"/>
-      <c r="FO29" s="42"/>
-      <c r="FP29" s="42"/>
-      <c r="FQ29" s="42"/>
-      <c r="FR29" s="42"/>
-      <c r="FS29" s="42"/>
-      <c r="FT29" s="42"/>
-      <c r="FU29" s="42"/>
-      <c r="FV29" s="42"/>
-      <c r="FW29" s="42"/>
-      <c r="FX29" s="42"/>
-      <c r="FY29" s="42"/>
-      <c r="FZ29" s="42"/>
-      <c r="GA29" s="42"/>
-      <c r="GB29" s="42"/>
-      <c r="GC29" s="42"/>
-      <c r="GD29" s="42"/>
-      <c r="GE29" s="42"/>
-      <c r="GF29" s="42"/>
-      <c r="GG29" s="42"/>
-      <c r="GH29" s="42"/>
-      <c r="GI29" s="42"/>
-      <c r="GJ29" s="42"/>
-      <c r="GK29" s="42"/>
-      <c r="GL29" s="42"/>
-      <c r="GM29" s="42"/>
-      <c r="GN29" s="42"/>
-      <c r="GO29" s="42"/>
-      <c r="GP29" s="42"/>
-      <c r="GQ29" s="42"/>
-      <c r="GR29" s="42"/>
-      <c r="GS29" s="42"/>
-      <c r="GT29" s="42"/>
-      <c r="GU29" s="42"/>
-      <c r="GV29" s="42"/>
-      <c r="GW29" s="42"/>
-      <c r="GX29" s="42"/>
-      <c r="GY29" s="42"/>
-      <c r="GZ29" s="42"/>
-      <c r="HA29" s="42"/>
-      <c r="HB29" s="42"/>
-      <c r="HC29" s="42"/>
-      <c r="HD29" s="42"/>
-      <c r="HE29" s="42"/>
-      <c r="HF29" s="42"/>
-      <c r="HG29" s="42"/>
-      <c r="HH29" s="42"/>
-      <c r="HI29" s="42"/>
-      <c r="HJ29" s="42"/>
-      <c r="HK29" s="42"/>
-      <c r="HL29" s="42"/>
-      <c r="HM29" s="42"/>
-      <c r="HN29" s="42"/>
-      <c r="HO29" s="42"/>
-      <c r="HP29" s="42"/>
-      <c r="HQ29" s="42"/>
-      <c r="HR29" s="42"/>
-      <c r="HS29" s="42"/>
-      <c r="HT29" s="42"/>
-      <c r="HU29" s="42"/>
-      <c r="HV29" s="42"/>
-      <c r="HW29" s="42"/>
-      <c r="HX29" s="42"/>
-      <c r="HY29" s="42"/>
-      <c r="HZ29" s="42"/>
-      <c r="IA29" s="42"/>
-      <c r="IB29" s="42"/>
-      <c r="IC29" s="42"/>
-      <c r="ID29" s="42"/>
-      <c r="IE29" s="42"/>
-      <c r="IF29" s="42"/>
-      <c r="IG29" s="42"/>
-      <c r="IH29" s="42"/>
-      <c r="II29" s="42"/>
-      <c r="IJ29" s="42"/>
-      <c r="IK29" s="42"/>
-      <c r="IL29" s="42"/>
-      <c r="IM29" s="42"/>
-      <c r="IN29" s="42"/>
-      <c r="IO29" s="42"/>
-      <c r="IP29" s="42"/>
-      <c r="IQ29" s="42"/>
-      <c r="IR29" s="42"/>
-      <c r="IS29" s="42"/>
-    </row>
-    <row r="30" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
       <c r="B30" s="54" t="s">
         <v>203</v>
@@ -7667,7 +5263,7 @@
       <c r="G30" s="73"/>
       <c r="H30" s="74"/>
     </row>
-    <row r="31" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
       <c r="B31" s="54" t="s">
         <v>205</v>
@@ -7683,7 +5279,7 @@
       <c r="G31" s="73"/>
       <c r="H31" s="74"/>
     </row>
-    <row r="32" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="54" t="s">
         <v>207</v>
@@ -7989,10 +5585,10 @@
     </row>
     <row r="51" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="51"/>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="40" t="s">
         <v>246</v>
       </c>
       <c r="D51" s="40">
@@ -8004,10 +5600,10 @@
       <c r="H51" s="51"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="40" t="s">
         <v>248</v>
       </c>
       <c r="D52" s="40">
@@ -10271,8 +7867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10535,7 +8131,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="126" t="s">
         <v>603</v>
       </c>
       <c r="C24" t="s">
@@ -10546,7 +8142,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B25" s="126" t="s">
         <v>606</v>
       </c>
       <c r="C25" t="s">
@@ -10590,7 +8186,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="127" t="s">
         <v>615</v>
       </c>
       <c r="C29" s="23" t="s">
@@ -10645,7 +8241,7 @@
   <dimension ref="A3:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10653,6 +8249,7 @@
     <col min="1" max="1" width="19.3984375" customWidth="1"/>
     <col min="2" max="2" width="21.69921875" customWidth="1"/>
     <col min="3" max="3" width="33.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">

--- a/sharedata/exceldata/excel/all/C-参数表.xlsx
+++ b/sharedata/exceldata/excel/all/C-参数表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32700" windowHeight="15280" activeTab="1"/>
+    <workbookView windowWidth="32700" windowHeight="15300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="物品id" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="646">
   <si>
     <t>填写备注</t>
   </si>
@@ -1478,10 +1478,16 @@
     <t>gift_value</t>
   </si>
   <si>
-    <t>每日接受到好友兴奋度次数限制</t>
+    <t>每日接受到好友礼物次数限制</t>
   </si>
   <si>
     <t>max_gift_count</t>
+  </si>
+  <si>
+    <t>单次赠送好友桃心数量</t>
+  </si>
+  <si>
+    <t>frienditem_value</t>
   </si>
   <si>
     <t>好友数量上限</t>
@@ -2526,10 +2532,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -2611,11 +2617,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2626,16 +2646,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2654,15 +2667,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2676,6 +2706,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2686,10 +2722,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2700,63 +2743,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
       <sz val="11"/>
-      <color theme="0" tint="-0.249946592608417"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249946592608417"/>
+      <color rgb="FF6600FF"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2770,22 +2765,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCC00CC"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF6600FF"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF0070C0"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF7030A0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2796,39 +2797,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FFCC00CC"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <color theme="0" tint="-0.249946592608417"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2837,6 +2816,33 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249946592608417"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2854,13 +2860,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799951170384838"/>
+        <fgColor theme="3" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2902,7 +2908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="6" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2926,13 +2932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2944,7 +2950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2956,7 +2962,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2974,7 +3004,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2986,73 +3028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3064,127 +3040,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249946592608417"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599963377788629"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3202,7 +3064,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249946592608417"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599963377788629"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3299,6 +3305,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3325,60 +3385,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3390,137 +3396,137 @@
   </borders>
   <cellStyleXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="51" borderId="1">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="1">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="57" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="1">
+    <xf numFmtId="0" fontId="16" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="1">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -3550,137 +3556,137 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="53" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="50" borderId="1">
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="58" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3693,46 +3699,46 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4515,12 +4521,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="32.25" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="60.25" customWidth="1"/>
+    <col min="1" max="1" width="16.1964285714286" customWidth="1"/>
+    <col min="2" max="2" width="32.1964285714286" customWidth="1"/>
+    <col min="3" max="3" width="26.0982142857143" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.4017857142857" customWidth="1"/>
+    <col min="5" max="5" width="8.59821428571429" customWidth="1"/>
+    <col min="6" max="6" width="60.1964285714286" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5396,12 +5402,12 @@
       <selection activeCell="C12" sqref="A3:D6 C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.09821428571429" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="38.75" customWidth="1"/>
-    <col min="4" max="4" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="15.9017857142857" customWidth="1"/>
+    <col min="3" max="3" width="38.6964285714286" customWidth="1"/>
+    <col min="4" max="4" width="41.0982142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8">
@@ -5415,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -5433,7 +5439,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -5467,7 +5473,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -5476,35 +5482,35 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -5516,25 +5522,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H156"/>
+  <dimension ref="A2:H157"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E125" sqref="E125"/>
+      <selection pane="bottomRight" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="48.0625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="36.875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="42" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="19.0982142857143" style="33" customWidth="1"/>
+    <col min="2" max="2" width="34.5982142857143" style="41" customWidth="1"/>
+    <col min="3" max="3" width="33.1964285714286" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.1964285714286" style="42" customWidth="1"/>
+    <col min="5" max="5" width="15.5982142857143" style="43" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="43" customWidth="1"/>
-    <col min="7" max="7" width="28.125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="28.0982142857143" style="28" customWidth="1"/>
     <col min="8" max="8" width="28.5" style="43" customWidth="1"/>
     <col min="9" max="16384" width="9" style="44"/>
   </cols>
@@ -6671,7 +6677,7 @@
         <v>286</v>
       </c>
       <c r="D71" s="86">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E71" s="101"/>
       <c r="F71" s="101"/>
@@ -7132,7 +7138,7 @@
         <v>354</v>
       </c>
       <c r="D103" s="42">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="2:4">
@@ -7143,7 +7149,7 @@
         <v>356</v>
       </c>
       <c r="D104" s="42">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="2:4">
@@ -7154,18 +7160,18 @@
         <v>358</v>
       </c>
       <c r="D105" s="42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="2:4">
+      <c r="B106" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="D106" s="42">
         <v>1</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="2:4">
-      <c r="B106" s="97" t="s">
-        <v>359</v>
-      </c>
-      <c r="C106" s="97" t="s">
-        <v>360</v>
-      </c>
-      <c r="D106" s="42">
-        <v>200</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="2:4">
@@ -7187,7 +7193,7 @@
         <v>364</v>
       </c>
       <c r="D108" s="42">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="2:4">
@@ -7209,7 +7215,7 @@
         <v>368</v>
       </c>
       <c r="D110" s="42">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="2:4">
@@ -7220,29 +7226,29 @@
         <v>370</v>
       </c>
       <c r="D111" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="2:4">
+      <c r="B112" s="97" t="s">
+        <v>371</v>
+      </c>
+      <c r="C112" s="97" t="s">
+        <v>372</v>
+      </c>
+      <c r="D112" s="42">
         <v>1000</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="2:8">
-      <c r="B112" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="C112" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="H112" s="28" t="s">
+    <row r="113" customHeight="1" spans="2:8">
+      <c r="B113" s="41" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="113" customHeight="1" spans="2:4">
-      <c r="B113" s="41" t="s">
+      <c r="C113" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="H113" s="28" t="s">
         <v>375</v>
-      </c>
-      <c r="D113" s="42">
-        <v>0.05</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="2:4">
@@ -7253,7 +7259,7 @@
         <v>377</v>
       </c>
       <c r="D114" s="42">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="2:4">
@@ -7264,7 +7270,7 @@
         <v>379</v>
       </c>
       <c r="D115" s="42">
-        <v>1600</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="2:4">
@@ -7275,7 +7281,7 @@
         <v>381</v>
       </c>
       <c r="D116" s="42">
-        <v>5</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="2:4">
@@ -7286,7 +7292,7 @@
         <v>383</v>
       </c>
       <c r="D117" s="42">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="2:4">
@@ -7297,7 +7303,7 @@
         <v>385</v>
       </c>
       <c r="D118" s="42">
-        <v>40000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="2:4">
@@ -7308,7 +7314,7 @@
         <v>387</v>
       </c>
       <c r="D119" s="42">
-        <v>2</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="2:4">
@@ -7319,77 +7325,70 @@
         <v>389</v>
       </c>
       <c r="D120" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" customHeight="1" spans="2:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="2:4">
       <c r="B121" s="41" t="s">
         <v>390</v>
       </c>
       <c r="C121" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="E121" s="43" t="s">
+      <c r="D121" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="2:5">
+      <c r="B122" s="41" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="122" customHeight="1" spans="2:6">
-      <c r="B122" s="41" t="s">
+      <c r="C122" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="E122" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="F122" s="43" t="s">
+    </row>
+    <row r="123" customHeight="1" spans="2:6">
+      <c r="B123" s="41" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="123" customHeight="1" spans="2:4">
-      <c r="B123" s="41" t="s">
+      <c r="C123" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="F123" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="D123" s="42">
+    </row>
+    <row r="124" customHeight="1" spans="2:4">
+      <c r="B124" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="D124" s="42">
         <v>10</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:4">
-      <c r="A124" s="33" t="s">
-        <v>398</v>
-      </c>
-      <c r="B124" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="C124" s="28" t="s">
+    <row r="125" customHeight="1" spans="1:4">
+      <c r="A125" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="D124" s="42">
+      <c r="B125" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="C125" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="D125" s="42">
         <v>99</v>
       </c>
-    </row>
-    <row r="125" customHeight="1" spans="1:8">
-      <c r="A125" s="98" t="s">
-        <v>401</v>
-      </c>
-      <c r="B125" s="99" t="s">
-        <v>402</v>
-      </c>
-      <c r="C125" s="99" t="s">
-        <v>403</v>
-      </c>
-      <c r="D125" s="98">
-        <v>10</v>
-      </c>
-      <c r="E125" s="98"/>
-      <c r="F125" s="98"/>
-      <c r="G125" s="98"/>
-      <c r="H125" s="98"/>
     </row>
     <row r="126" customHeight="1" spans="1:8">
       <c r="A126" s="98" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B126" s="99" t="s">
         <v>404</v>
@@ -7398,16 +7397,16 @@
         <v>405</v>
       </c>
       <c r="D126" s="98">
-        <v>5</v>
-      </c>
-      <c r="E126" s="99"/>
-      <c r="F126" s="99"/>
-      <c r="G126" s="99"/>
-      <c r="H126" s="99"/>
+        <v>10</v>
+      </c>
+      <c r="E126" s="98"/>
+      <c r="F126" s="98"/>
+      <c r="G126" s="98"/>
+      <c r="H126" s="98"/>
     </row>
     <row r="127" customHeight="1" spans="1:8">
       <c r="A127" s="98" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B127" s="99" t="s">
         <v>406</v>
@@ -7416,7 +7415,7 @@
         <v>407</v>
       </c>
       <c r="D127" s="98">
-        <v>21600</v>
+        <v>5</v>
       </c>
       <c r="E127" s="99"/>
       <c r="F127" s="99"/>
@@ -7425,7 +7424,7 @@
     </row>
     <row r="128" customHeight="1" spans="1:8">
       <c r="A128" s="98" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B128" s="99" t="s">
         <v>408</v>
@@ -7434,28 +7433,35 @@
         <v>409</v>
       </c>
       <c r="D128" s="98">
-        <v>10</v>
+        <v>21600</v>
       </c>
       <c r="E128" s="99"/>
       <c r="F128" s="99"/>
       <c r="G128" s="99"/>
       <c r="H128" s="99"/>
     </row>
-    <row r="129" customHeight="1" spans="1:4">
-      <c r="A129" s="33" t="s">
+    <row r="129" customHeight="1" spans="1:8">
+      <c r="A129" s="98" t="s">
+        <v>403</v>
+      </c>
+      <c r="B129" s="99" t="s">
         <v>410</v>
       </c>
-      <c r="B129" s="41" t="s">
+      <c r="C129" s="99" t="s">
         <v>411</v>
       </c>
-      <c r="C129" s="28" t="s">
+      <c r="D129" s="98">
+        <v>10</v>
+      </c>
+      <c r="E129" s="99"/>
+      <c r="F129" s="99"/>
+      <c r="G129" s="99"/>
+      <c r="H129" s="99"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:4">
+      <c r="A130" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="D129" s="42">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="130" customHeight="1" spans="2:4">
       <c r="B130" s="41" t="s">
         <v>413</v>
       </c>
@@ -7463,7 +7469,7 @@
         <v>414</v>
       </c>
       <c r="D130" s="42">
-        <v>6480</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="2:4">
@@ -7474,7 +7480,7 @@
         <v>416</v>
       </c>
       <c r="D131" s="42">
-        <v>15</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="2:4">
@@ -7485,7 +7491,7 @@
         <v>418</v>
       </c>
       <c r="D132" s="42">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="2:4">
@@ -7507,82 +7513,77 @@
         <v>422</v>
       </c>
       <c r="D134" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="2:4">
+      <c r="B135" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="C135" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="D135" s="42">
         <v>99</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:4">
-      <c r="A135" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="B135" s="41" t="s">
-        <v>424</v>
-      </c>
-      <c r="C135" s="28" t="s">
+    <row r="136" customHeight="1" spans="1:4">
+      <c r="A136" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="D135" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" customHeight="1" spans="1:8">
-      <c r="A136" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="B136" s="33" t="s">
+      <c r="B136" s="41" t="s">
         <v>426</v>
       </c>
       <c r="C136" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="H136" s="43" t="s">
-        <v>428</v>
+      <c r="D136" s="42">
+        <v>2</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:8">
       <c r="A137" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="C137" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="B137" s="41" t="s">
-        <v>429</v>
-      </c>
-      <c r="C137" s="28" t="s">
+      <c r="H137" s="43" t="s">
         <v>430</v>
       </c>
-      <c r="H137" s="43" t="s">
+    </row>
+    <row r="138" customHeight="1" spans="1:8">
+      <c r="A138" s="33" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="138" customHeight="1" spans="1:8">
-      <c r="A138" s="106"/>
-      <c r="B138" s="107" t="s">
+      <c r="B138" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="C138" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="C138" s="108" t="s">
+      <c r="H138" s="43" t="s">
         <v>433</v>
       </c>
-      <c r="D138" s="109">
+    </row>
+    <row r="139" customHeight="1" spans="1:8">
+      <c r="A139" s="106"/>
+      <c r="B139" s="107" t="s">
+        <v>434</v>
+      </c>
+      <c r="C139" s="108" t="s">
+        <v>435</v>
+      </c>
+      <c r="D139" s="109">
         <v>60</v>
       </c>
-      <c r="E138" s="114"/>
-      <c r="F138" s="114"/>
-      <c r="G138" s="108"/>
-      <c r="H138" s="114"/>
-    </row>
-    <row r="139" customHeight="1" spans="1:8">
-      <c r="A139" s="110"/>
-      <c r="B139" s="111" t="s">
-        <v>434</v>
-      </c>
-      <c r="C139" s="112" t="s">
-        <v>435</v>
-      </c>
-      <c r="D139" s="113">
-        <v>3</v>
-      </c>
-      <c r="E139" s="115"/>
-      <c r="F139" s="115"/>
-      <c r="G139" s="112"/>
-      <c r="H139" s="115"/>
+      <c r="E139" s="114"/>
+      <c r="F139" s="114"/>
+      <c r="G139" s="108"/>
+      <c r="H139" s="114"/>
     </row>
     <row r="140" customHeight="1" spans="1:8">
       <c r="A140" s="110"/>
@@ -7592,10 +7593,10 @@
       <c r="C140" s="112" t="s">
         <v>437</v>
       </c>
-      <c r="D140" s="113"/>
-      <c r="E140" s="115" t="s">
-        <v>438</v>
-      </c>
+      <c r="D140" s="113">
+        <v>3</v>
+      </c>
+      <c r="E140" s="115"/>
       <c r="F140" s="115"/>
       <c r="G140" s="112"/>
       <c r="H140" s="115"/>
@@ -7603,15 +7604,15 @@
     <row r="141" customHeight="1" spans="1:8">
       <c r="A141" s="110"/>
       <c r="B141" s="111" t="s">
+        <v>438</v>
+      </c>
+      <c r="C141" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="C141" s="112" t="s">
+      <c r="D141" s="113"/>
+      <c r="E141" s="115" t="s">
         <v>440</v>
       </c>
-      <c r="D141" s="113">
-        <v>2</v>
-      </c>
-      <c r="E141" s="115"/>
       <c r="F141" s="115"/>
       <c r="G141" s="112"/>
       <c r="H141" s="115"/>
@@ -7640,10 +7641,10 @@
       <c r="C143" s="112" t="s">
         <v>444</v>
       </c>
-      <c r="D143" s="113"/>
-      <c r="E143" s="115" t="s">
-        <v>445</v>
-      </c>
+      <c r="D143" s="113">
+        <v>2</v>
+      </c>
+      <c r="E143" s="115"/>
       <c r="F143" s="115"/>
       <c r="G143" s="112"/>
       <c r="H143" s="115"/>
@@ -7651,14 +7652,14 @@
     <row r="144" customHeight="1" spans="1:8">
       <c r="A144" s="110"/>
       <c r="B144" s="111" t="s">
+        <v>445</v>
+      </c>
+      <c r="C144" s="112" t="s">
         <v>446</v>
-      </c>
-      <c r="C144" s="112" t="s">
-        <v>447</v>
       </c>
       <c r="D144" s="113"/>
       <c r="E144" s="115" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F144" s="115"/>
       <c r="G144" s="112"/>
@@ -7674,7 +7675,7 @@
       </c>
       <c r="D145" s="113"/>
       <c r="E145" s="115" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F145" s="115"/>
       <c r="G145" s="112"/>
@@ -7690,7 +7691,7 @@
       </c>
       <c r="D146" s="113"/>
       <c r="E146" s="115" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F146" s="115"/>
       <c r="G146" s="112"/>
@@ -7704,10 +7705,10 @@
       <c r="C147" s="112" t="s">
         <v>453</v>
       </c>
-      <c r="D147" s="113">
-        <v>5</v>
-      </c>
-      <c r="E147" s="115"/>
+      <c r="D147" s="113"/>
+      <c r="E147" s="115" t="s">
+        <v>447</v>
+      </c>
       <c r="F147" s="115"/>
       <c r="G147" s="112"/>
       <c r="H147" s="115"/>
@@ -7737,7 +7738,7 @@
         <v>457</v>
       </c>
       <c r="D149" s="113">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="E149" s="115"/>
       <c r="F149" s="115"/>
@@ -7765,80 +7766,96 @@
       <c r="B151" s="111" t="s">
         <v>460</v>
       </c>
-      <c r="C151" s="111" t="s">
+      <c r="C151" s="112" t="s">
         <v>461</v>
       </c>
-      <c r="D151" s="111"/>
-      <c r="E151" s="111"/>
-      <c r="F151" s="111" t="s">
+      <c r="D151" s="113">
+        <v>0.3</v>
+      </c>
+      <c r="E151" s="115"/>
+      <c r="F151" s="115"/>
+      <c r="G151" s="112"/>
+      <c r="H151" s="115"/>
+    </row>
+    <row r="152" customHeight="1" spans="1:8">
+      <c r="A152" s="110"/>
+      <c r="B152" s="111" t="s">
         <v>462</v>
       </c>
-      <c r="G151" s="110"/>
-      <c r="H151" s="110"/>
-    </row>
-    <row r="152" customHeight="1" spans="1:8">
-      <c r="A152" s="111"/>
-      <c r="B152" s="111" t="s">
+      <c r="C152" s="111" t="s">
         <v>463</v>
       </c>
-      <c r="C152" s="111" t="s">
+      <c r="D152" s="111"/>
+      <c r="E152" s="111"/>
+      <c r="F152" s="111" t="s">
         <v>464</v>
       </c>
-      <c r="D152" s="113">
+      <c r="G152" s="110"/>
+      <c r="H152" s="110"/>
+    </row>
+    <row r="153" customHeight="1" spans="1:8">
+      <c r="A153" s="111"/>
+      <c r="B153" s="111" t="s">
+        <v>465</v>
+      </c>
+      <c r="C153" s="111" t="s">
+        <v>466</v>
+      </c>
+      <c r="D153" s="113">
         <v>3</v>
       </c>
-      <c r="E152" s="111"/>
-      <c r="F152" s="111"/>
-      <c r="G152" s="111"/>
-      <c r="H152" s="111"/>
-    </row>
-    <row r="153" customHeight="1" spans="1:4">
-      <c r="A153" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="B153" s="41" t="s">
-        <v>466</v>
-      </c>
-      <c r="C153" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="D153" s="42">
-        <v>10</v>
-      </c>
+      <c r="E153" s="111"/>
+      <c r="F153" s="111"/>
+      <c r="G153" s="111"/>
+      <c r="H153" s="111"/>
     </row>
     <row r="154" customHeight="1" spans="1:4">
       <c r="A154" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="B154" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="B154" s="41" t="s">
+      <c r="C154" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="C154" s="28" t="s">
+      <c r="D154" s="42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:4">
+      <c r="A155" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="D154" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" customHeight="1" spans="2:6">
       <c r="B155" s="41" t="s">
         <v>471</v>
       </c>
       <c r="C155" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="F155" s="43" t="s">
+      <c r="D155" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="2:6">
+      <c r="B156" s="41" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="156" customHeight="1" spans="2:4">
-      <c r="B156" s="41" t="s">
+      <c r="C156" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="C156" s="28" t="s">
+      <c r="F156" s="43" t="s">
         <v>475</v>
       </c>
-      <c r="D156" s="42">
+    </row>
+    <row r="157" customHeight="1" spans="2:4">
+      <c r="B157" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="C157" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="D157" s="42">
         <v>100</v>
       </c>
     </row>
@@ -7855,13 +7872,13 @@
   <dimension ref="A3:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.09821428571429" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="48.375" customWidth="1"/>
-    <col min="3" max="3" width="39.125" customWidth="1"/>
+    <col min="2" max="2" width="48.4017857142857" customWidth="1"/>
+    <col min="3" max="3" width="39.0982142857143" customWidth="1"/>
     <col min="4" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7893,10 +7910,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7925,87 +7942,87 @@
         <v>20</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="35"/>
       <c r="B8" s="35" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="35"/>
       <c r="B9" s="35" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="35"/>
       <c r="B10" s="35" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E10" s="35"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="35"/>
       <c r="B11" s="35" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E12" s="36"/>
     </row>
@@ -8024,13 +8041,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.09821428571429" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="41.375" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="15.4017857142857" customWidth="1"/>
+    <col min="2" max="2" width="41.4017857142857" customWidth="1"/>
+    <col min="3" max="3" width="25.1964285714286" customWidth="1"/>
+    <col min="4" max="4" width="19.6964285714286" customWidth="1"/>
+    <col min="5" max="5" width="21.5982142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
@@ -8057,10 +8074,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8089,74 +8106,74 @@
         <v>20</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="15"/>
       <c r="B7" s="8" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="15"/>
       <c r="B8" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="15"/>
       <c r="B9" s="8" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="12" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="33" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D11" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -8175,10 +8192,10 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.09821428571429" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="1" max="1" width="13.0982142857143" customWidth="1"/>
+    <col min="2" max="2" width="46.4017857142857" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
@@ -8208,7 +8225,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8234,40 +8251,40 @@
         <v>20</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="15"/>
       <c r="B8" s="10" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="15"/>
       <c r="B9" s="8" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>135</v>
@@ -8276,57 +8293,57 @@
     <row r="10" spans="1:4">
       <c r="A10" s="15"/>
       <c r="B10" s="8" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="15"/>
       <c r="B11" s="8" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="15"/>
       <c r="B12" s="8" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>527</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="15"/>
       <c r="B13" s="8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="28" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>135</v>
@@ -8348,9 +8365,9 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.09821428571429" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="2" max="2" width="32.0982142857143" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
@@ -8380,7 +8397,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8406,67 +8423,67 @@
         <v>20</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>539</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>547</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -8484,11 +8501,11 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.09821428571429" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="22.4017857142857" customWidth="1"/>
+    <col min="3" max="3" width="21.5982142857143" customWidth="1"/>
+    <col min="4" max="4" width="11.5982142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
@@ -8502,7 +8519,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8516,7 +8533,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8542,85 +8559,85 @@
         <v>20</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="12" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="12" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" ht="18" spans="2:4">
       <c r="B10" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="23" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="23" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="23" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C13" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D13" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -8639,11 +8656,11 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.09821428571429" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="28.75" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="38.875" customWidth="1"/>
+    <col min="2" max="2" width="28.6964285714286" customWidth="1"/>
+    <col min="3" max="3" width="24.1964285714286" customWidth="1"/>
+    <col min="4" max="4" width="38.9017857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
@@ -8671,7 +8688,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8697,337 +8714,337 @@
         <v>20</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="12" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="15"/>
       <c r="B9" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="15"/>
       <c r="B10" s="8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="15"/>
       <c r="B11" s="8" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="15"/>
       <c r="B12" s="8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="15"/>
       <c r="B13" s="8" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="15"/>
       <c r="B14" s="8" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="15"/>
       <c r="B15" s="8" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="15"/>
       <c r="B16" s="8" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="15"/>
       <c r="B17" s="8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15"/>
       <c r="B18" s="8" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="12" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="12" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="12" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="12" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="12" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="21" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C24" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="21" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C25" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="23" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C26" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D26" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="23" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="23" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" ht="18" spans="2:4">
       <c r="B29" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="23" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="23" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="23" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="25" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="25" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -9046,11 +9063,11 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.09821428571429" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="19.4017857142857" customWidth="1"/>
+    <col min="2" max="2" width="21.6964285714286" customWidth="1"/>
+    <col min="3" max="3" width="33.5982142857143" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9065,7 +9082,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -9083,7 +9100,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -9117,7 +9134,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -9126,13 +9143,13 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
